--- a/PythonResources/Data/Consumption/Sympheny/post_1691_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1691_hea.xlsx
@@ -359,7 +359,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>15.26539634048056</v>
+        <v>15.26539634048055</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -367,7 +367,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>21.82763788845834</v>
+        <v>21.82763788845833</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -399,7 +399,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>29.1309388647952</v>
+        <v>29.13093886479519</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -527,7 +527,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>6.440030924856</v>
+        <v>6.440030924855999</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -559,7 +559,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>21.72087210907401</v>
+        <v>21.720872109074</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -591,7 +591,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>30.7062250047038</v>
+        <v>30.70622500470379</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -687,7 +687,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>58.57933227866836</v>
+        <v>58.57933227866835</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -711,7 +711,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>30.67838325603097</v>
+        <v>30.67838325603096</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -743,7 +743,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>38.95734702717531</v>
+        <v>38.9573470271753</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -895,7 +895,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0.5067872321843582</v>
+        <v>0.5067872321843581</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -943,7 +943,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>5.741056497648692</v>
+        <v>5.741056497648691</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -951,7 +951,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>6.484665644044123</v>
+        <v>6.484665644044122</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -975,7 +975,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>5.67435352924937</v>
+        <v>5.674353529249369</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -991,7 +991,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>0.4943698122762769</v>
+        <v>0.4943698122762768</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>1.259411243729013</v>
+        <v>1.259411243729012</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1191,7 +1191,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>3.314311069117288</v>
+        <v>3.314311069117287</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1207,7 +1207,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>5.925955015940135</v>
+        <v>5.925955015940134</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1511,7 +1511,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>45.15873020524938</v>
+        <v>45.15873020524937</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1559,7 +1559,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>3.642052411652271</v>
+        <v>3.64205241165227</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1575,7 +1575,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>5.468412510382042</v>
+        <v>5.468412510382041</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1583,7 +1583,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>4.225087935965151</v>
+        <v>4.22508793596515</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1639,7 +1639,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>8.180755666088928</v>
+        <v>8.180755666088926</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1671,7 +1671,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>36.93486378937337</v>
+        <v>36.93486378937336</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1759,7 +1759,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>7.101492259114656</v>
+        <v>7.101492259114655</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1871,7 +1871,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>36.0354287717217</v>
+        <v>36.03542877172169</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>62.26323523464147</v>
+        <v>62.26323523464146</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2007,7 +2007,7 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>11.34014938416983</v>
+        <v>11.34014938416982</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2031,7 +2031,7 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>61.26737984527022</v>
+        <v>61.26737984527021</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2071,7 +2071,7 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>54.58975622937147</v>
+        <v>54.58975622937146</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2087,7 +2087,7 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>58.67164965584669</v>
+        <v>58.67164965584668</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2127,7 +2127,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>57.47152375252848</v>
+        <v>57.47152375252847</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2135,7 +2135,7 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>5.961357997410425</v>
+        <v>5.961357997410424</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2151,7 +2151,7 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>7.204917028658246</v>
+        <v>7.204917028658245</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2375,7 +2375,7 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>2.354696844386899</v>
+        <v>2.354696844386898</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2455,7 +2455,7 @@
         <v>264</v>
       </c>
       <c r="B264">
-        <v>24.13697905890201</v>
+        <v>24.136979058902</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2527,7 +2527,7 @@
         <v>273</v>
       </c>
       <c r="B273">
-        <v>3.461579266044614</v>
+        <v>3.461579266044613</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2583,7 +2583,7 @@
         <v>280</v>
       </c>
       <c r="B280">
-        <v>0.4033507397992229</v>
+        <v>0.4033507397992228</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2703,7 +2703,7 @@
         <v>295</v>
       </c>
       <c r="B295">
-        <v>24.99034330927612</v>
+        <v>24.99034330927611</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2967,7 +2967,7 @@
         <v>328</v>
       </c>
       <c r="B328">
-        <v>0.1858146583582981</v>
+        <v>0.185814658358298</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3111,7 +3111,7 @@
         <v>346</v>
       </c>
       <c r="B346">
-        <v>9.059089568956979</v>
+        <v>9.059089568956978</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3183,7 +3183,7 @@
         <v>355</v>
       </c>
       <c r="B355">
-        <v>41.64041238611993</v>
+        <v>41.64041238611992</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>372</v>
       </c>
       <c r="B372">
-        <v>9.540722513893034</v>
+        <v>9.540722513893032</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>373</v>
       </c>
       <c r="B373">
-        <v>8.930636532711711</v>
+        <v>8.930636532711709</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>386</v>
       </c>
       <c r="B386">
-        <v>60.27093831382165</v>
+        <v>60.27093831382164</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3599,7 +3599,7 @@
         <v>407</v>
       </c>
       <c r="B407">
-        <v>86.72763325793593</v>
+        <v>86.72763325793592</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>416</v>
       </c>
       <c r="B416">
-        <v>34.59850146916512</v>
+        <v>34.59850146916511</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>421</v>
       </c>
       <c r="B421">
-        <v>34.46075808099429</v>
+        <v>34.46075808099428</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>428</v>
       </c>
       <c r="B428">
-        <v>90.01354574340694</v>
+        <v>90.01354574340692</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3791,7 +3791,7 @@
         <v>431</v>
       </c>
       <c r="B431">
-        <v>82.02970450819457</v>
+        <v>82.02970450819456</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3863,7 +3863,7 @@
         <v>440</v>
       </c>
       <c r="B440">
-        <v>34.89421014717442</v>
+        <v>34.89421014717441</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3935,7 +3935,7 @@
         <v>449</v>
       </c>
       <c r="B449">
-        <v>59.83074561375231</v>
+        <v>59.8307456137523</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -4007,7 +4007,7 @@
         <v>458</v>
       </c>
       <c r="B458">
-        <v>86.95212567355053</v>
+        <v>86.95212567355051</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4023,7 +4023,7 @@
         <v>460</v>
       </c>
       <c r="B460">
-        <v>86.12156234998427</v>
+        <v>86.12156234998426</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4047,7 +4047,7 @@
         <v>463</v>
       </c>
       <c r="B463">
-        <v>83.75442757071659</v>
+        <v>83.75442757071657</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4135,7 +4135,7 @@
         <v>474</v>
       </c>
       <c r="B474">
-        <v>22.29614125086237</v>
+        <v>22.29614125086236</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4175,7 +4175,7 @@
         <v>479</v>
       </c>
       <c r="B479">
-        <v>61.4153807197942</v>
+        <v>61.41538071979419</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4311,7 +4311,7 @@
         <v>496</v>
       </c>
       <c r="B496">
-        <v>24.80819965874809</v>
+        <v>24.80819965874808</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4319,7 +4319,7 @@
         <v>497</v>
       </c>
       <c r="B497">
-        <v>26.8160000375131</v>
+        <v>26.81600003751309</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4375,7 +4375,7 @@
         <v>504</v>
       </c>
       <c r="B504">
-        <v>92.65030587824306</v>
+        <v>92.65030587824305</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4383,7 +4383,7 @@
         <v>505</v>
       </c>
       <c r="B505">
-        <v>97.53755851895966</v>
+        <v>97.53755851895964</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4439,7 +4439,7 @@
         <v>512</v>
       </c>
       <c r="B512">
-        <v>35.18200590713986</v>
+        <v>35.18200590713985</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4567,7 +4567,7 @@
         <v>528</v>
       </c>
       <c r="B528">
-        <v>94.70151007783382</v>
+        <v>94.7015100778338</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4647,7 +4647,7 @@
         <v>538</v>
       </c>
       <c r="B538">
-        <v>57.66788134843158</v>
+        <v>57.66788134843157</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4887,7 +4887,7 @@
         <v>568</v>
       </c>
       <c r="B568">
-        <v>59.27273835614111</v>
+        <v>59.2727383561411</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -5103,7 +5103,7 @@
         <v>595</v>
       </c>
       <c r="B595">
-        <v>89.23661441991571</v>
+        <v>89.2366144199157</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5119,7 +5119,7 @@
         <v>597</v>
       </c>
       <c r="B597">
-        <v>58.90317577638915</v>
+        <v>58.90317577638914</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5303,7 +5303,7 @@
         <v>620</v>
       </c>
       <c r="B620">
-        <v>56.80390792645793</v>
+        <v>56.80390792645792</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5327,7 +5327,7 @@
         <v>623</v>
       </c>
       <c r="B623">
-        <v>50.35312129448306</v>
+        <v>50.35312129448305</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5495,7 +5495,7 @@
         <v>644</v>
       </c>
       <c r="B644">
-        <v>83.87165598618112</v>
+        <v>83.87165598618111</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5639,7 +5639,7 @@
         <v>662</v>
       </c>
       <c r="B662">
-        <v>20.57771921567157</v>
+        <v>20.57771921567156</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5655,7 +5655,7 @@
         <v>664</v>
       </c>
       <c r="B664">
-        <v>20.09377100953009</v>
+        <v>20.09377100953008</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5679,7 +5679,7 @@
         <v>667</v>
       </c>
       <c r="B667">
-        <v>76.74563368113051</v>
+        <v>76.7456336811305</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5719,7 +5719,7 @@
         <v>672</v>
       </c>
       <c r="B672">
-        <v>85.2698979116344</v>
+        <v>85.26989791163439</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5863,7 +5863,7 @@
         <v>690</v>
       </c>
       <c r="B690">
-        <v>19.82994846052715</v>
+        <v>19.82994846052714</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5903,7 +5903,7 @@
         <v>695</v>
       </c>
       <c r="B695">
-        <v>57.16848829855265</v>
+        <v>57.16848829855264</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5911,7 +5911,7 @@
         <v>696</v>
       </c>
       <c r="B696">
-        <v>63.88362500740005</v>
+        <v>63.88362500740004</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -6071,7 +6071,7 @@
         <v>716</v>
       </c>
       <c r="B716">
-        <v>62.51351790165826</v>
+        <v>62.51351790165825</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6143,7 +6143,7 @@
         <v>725</v>
       </c>
       <c r="B725">
-        <v>87.9834426585998</v>
+        <v>87.98344265859978</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6255,7 +6255,7 @@
         <v>739</v>
       </c>
       <c r="B739">
-        <v>51.91987906716661</v>
+        <v>51.9198790671666</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6263,7 +6263,7 @@
         <v>740</v>
       </c>
       <c r="B740">
-        <v>53.41571364849412</v>
+        <v>53.41571364849411</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -6287,7 +6287,7 @@
         <v>743</v>
       </c>
       <c r="B743">
-        <v>59.28504733976488</v>
+        <v>59.28504733976487</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6319,7 +6319,7 @@
         <v>747</v>
       </c>
       <c r="B747">
-        <v>85.21890355090733</v>
+        <v>85.21890355090731</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -6335,7 +6335,7 @@
         <v>749</v>
       </c>
       <c r="B749">
-        <v>89.42535216881362</v>
+        <v>89.4253521688136</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6343,7 +6343,7 @@
         <v>750</v>
       </c>
       <c r="B750">
-        <v>86.83958639470457</v>
+        <v>86.83958639470455</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6479,7 +6479,7 @@
         <v>767</v>
       </c>
       <c r="B767">
-        <v>55.01265773815979</v>
+        <v>55.01265773815978</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -6511,7 +6511,7 @@
         <v>771</v>
       </c>
       <c r="B771">
-        <v>75.17653134013767</v>
+        <v>75.17653134013766</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -6647,7 +6647,7 @@
         <v>788</v>
       </c>
       <c r="B788">
-        <v>97.78989268324707</v>
+        <v>97.78989268324706</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6671,7 +6671,7 @@
         <v>791</v>
       </c>
       <c r="B791">
-        <v>83.61463268527513</v>
+        <v>83.61463268527511</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6703,7 +6703,7 @@
         <v>795</v>
       </c>
       <c r="B795">
-        <v>98.62250750408396</v>
+        <v>98.62250750408394</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -6791,7 +6791,7 @@
         <v>806</v>
       </c>
       <c r="B806">
-        <v>51.95592680492196</v>
+        <v>51.95592680492195</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -6799,7 +6799,7 @@
         <v>807</v>
       </c>
       <c r="B807">
-        <v>54.97983378182972</v>
+        <v>54.97983378182971</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -6823,7 +6823,7 @@
         <v>810</v>
       </c>
       <c r="B810">
-        <v>71.36016027468963</v>
+        <v>71.36016027468962</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -6847,7 +6847,7 @@
         <v>813</v>
       </c>
       <c r="B813">
-        <v>99.47094816100856</v>
+        <v>99.47094816100854</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -6895,7 +6895,7 @@
         <v>819</v>
       </c>
       <c r="B819">
-        <v>107.8395916699833</v>
+        <v>107.8395916699832</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -6935,7 +6935,7 @@
         <v>824</v>
       </c>
       <c r="B824">
-        <v>41.34470370811063</v>
+        <v>41.34470370811062</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -6975,7 +6975,7 @@
         <v>829</v>
       </c>
       <c r="B829">
-        <v>36.59314295829424</v>
+        <v>36.59314295829423</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -7055,7 +7055,7 @@
         <v>839</v>
       </c>
       <c r="B839">
-        <v>111.7526761781896</v>
+        <v>111.7526761781895</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -7135,7 +7135,7 @@
         <v>849</v>
       </c>
       <c r="B849">
-        <v>43.26812893484504</v>
+        <v>43.26812893484503</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -7151,7 +7151,7 @@
         <v>851</v>
       </c>
       <c r="B851">
-        <v>39.63287577128971</v>
+        <v>39.6328757712897</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -7207,7 +7207,7 @@
         <v>858</v>
       </c>
       <c r="B858">
-        <v>41.38807822183251</v>
+        <v>41.3880782218325</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7231,7 +7231,7 @@
         <v>861</v>
       </c>
       <c r="B861">
-        <v>91.08178967932754</v>
+        <v>91.08178967932751</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -7335,7 +7335,7 @@
         <v>874</v>
       </c>
       <c r="B874">
-        <v>30.15613066513645</v>
+        <v>30.15613066513644</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7407,7 +7407,7 @@
         <v>883</v>
       </c>
       <c r="B883">
-        <v>70.89593574945006</v>
+        <v>70.89593574945005</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -7471,7 +7471,7 @@
         <v>891</v>
       </c>
       <c r="B891">
-        <v>92.07793813973746</v>
+        <v>92.07793813973744</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -7527,7 +7527,7 @@
         <v>898</v>
       </c>
       <c r="B898">
-        <v>40.51941566324028</v>
+        <v>40.51941566324027</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -7583,7 +7583,7 @@
         <v>905</v>
       </c>
       <c r="B905">
-        <v>27.26439872666496</v>
+        <v>27.26439872666495</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -7615,7 +7615,7 @@
         <v>909</v>
       </c>
       <c r="B909">
-        <v>54.66888540981003</v>
+        <v>54.66888540981002</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -7663,7 +7663,7 @@
         <v>915</v>
       </c>
       <c r="B915">
-        <v>64.67726138009498</v>
+        <v>64.67726138009496</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -7791,7 +7791,7 @@
         <v>931</v>
       </c>
       <c r="B931">
-        <v>78.1544261639756</v>
+        <v>78.15442616397559</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -7815,7 +7815,7 @@
         <v>934</v>
       </c>
       <c r="B934">
-        <v>40.68734536839323</v>
+        <v>40.68734536839322</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -7855,7 +7855,7 @@
         <v>939</v>
       </c>
       <c r="B939">
-        <v>51.09986630099217</v>
+        <v>51.09986630099216</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -7943,7 +7943,7 @@
         <v>950</v>
       </c>
       <c r="B950">
-        <v>5.173612352592595</v>
+        <v>5.173612352592594</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -7959,7 +7959,7 @@
         <v>952</v>
       </c>
       <c r="B952">
-        <v>6.222103300507424</v>
+        <v>6.222103300507423</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -7975,7 +7975,7 @@
         <v>954</v>
       </c>
       <c r="B954">
-        <v>9.133705455400158</v>
+        <v>9.133705455400156</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -7999,7 +7999,7 @@
         <v>957</v>
       </c>
       <c r="B957">
-        <v>33.28144022142104</v>
+        <v>33.28144022142103</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -8007,7 +8007,7 @@
         <v>958</v>
       </c>
       <c r="B958">
-        <v>30.74842723427103</v>
+        <v>30.74842723427102</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8119,7 +8119,7 @@
         <v>972</v>
       </c>
       <c r="B972">
-        <v>3.23195810725345</v>
+        <v>3.231958107253449</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -8303,7 +8303,7 @@
         <v>995</v>
       </c>
       <c r="B995">
-        <v>1.662260832052125</v>
+        <v>1.662260832052124</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -8399,7 +8399,7 @@
         <v>1007</v>
       </c>
       <c r="B1007">
-        <v>25.57182555708409</v>
+        <v>25.57182555708408</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
@@ -8439,7 +8439,7 @@
         <v>1012</v>
       </c>
       <c r="B1012">
-        <v>54.6486635081424</v>
+        <v>54.64866350814239</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
@@ -8511,7 +8511,7 @@
         <v>1021</v>
       </c>
       <c r="B1021">
-        <v>13.76047655695455</v>
+        <v>13.76047655695454</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
@@ -8639,7 +8639,7 @@
         <v>1037</v>
       </c>
       <c r="B1037">
-        <v>87.46148313874394</v>
+        <v>87.46148313874393</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -8655,7 +8655,7 @@
         <v>1039</v>
       </c>
       <c r="B1039">
-        <v>83.40010468497502</v>
+        <v>83.40010468497501</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
@@ -8695,7 +8695,7 @@
         <v>1044</v>
       </c>
       <c r="B1044">
-        <v>17.60360500823237</v>
+        <v>17.60360500823236</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
@@ -8775,7 +8775,7 @@
         <v>1054</v>
       </c>
       <c r="B1054">
-        <v>46.66921833850995</v>
+        <v>46.66921833850994</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
@@ -8823,7 +8823,7 @@
         <v>1060</v>
       </c>
       <c r="B1060">
-        <v>59.14261481497547</v>
+        <v>59.14261481497546</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
@@ -8855,7 +8855,7 @@
         <v>1064</v>
       </c>
       <c r="B1064">
-        <v>4.380239743832467</v>
+        <v>4.380239743832466</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
@@ -8943,7 +8943,7 @@
         <v>1075</v>
       </c>
       <c r="B1075">
-        <v>29.82232275210118</v>
+        <v>29.82232275210117</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
@@ -8983,7 +8983,7 @@
         <v>1080</v>
       </c>
       <c r="B1080">
-        <v>37.88001788905621</v>
+        <v>37.8800178890562</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
@@ -8991,7 +8991,7 @@
         <v>1081</v>
       </c>
       <c r="B1081">
-        <v>42.45544294463713</v>
+        <v>42.45544294463712</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
@@ -9023,7 +9023,7 @@
         <v>1085</v>
       </c>
       <c r="B1085">
-        <v>50.42726826726438</v>
+        <v>50.42726826726437</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
@@ -9151,7 +9151,7 @@
         <v>1101</v>
       </c>
       <c r="B1101">
-        <v>34.83794050775144</v>
+        <v>34.83794050775143</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
@@ -9223,7 +9223,7 @@
         <v>1110</v>
       </c>
       <c r="B1110">
-        <v>59.45883846569106</v>
+        <v>59.45883846569105</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
@@ -9231,7 +9231,7 @@
         <v>1111</v>
       </c>
       <c r="B1111">
-        <v>60.90807475187141</v>
+        <v>60.9080747518714</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
@@ -9263,7 +9263,7 @@
         <v>1115</v>
       </c>
       <c r="B1115">
-        <v>32.92213512802223</v>
+        <v>32.92213512802222</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
@@ -9287,7 +9287,7 @@
         <v>1118</v>
       </c>
       <c r="B1118">
-        <v>41.9560498947582</v>
+        <v>41.95604989475819</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
@@ -9455,7 +9455,7 @@
         <v>1139</v>
       </c>
       <c r="B1139">
-        <v>26.93246646827712</v>
+        <v>26.93246646827711</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
@@ -9559,7 +9559,7 @@
         <v>1152</v>
       </c>
       <c r="B1152">
-        <v>73.43393094425731</v>
+        <v>73.4339309442573</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
@@ -9567,7 +9567,7 @@
         <v>1153</v>
       </c>
       <c r="B1153">
-        <v>76.97276373609306</v>
+        <v>76.97276373609304</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
@@ -9719,7 +9719,7 @@
         <v>1172</v>
       </c>
       <c r="B1172">
-        <v>56.84230023252257</v>
+        <v>56.84230023252256</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
@@ -9727,7 +9727,7 @@
         <v>1173</v>
       </c>
       <c r="B1173">
-        <v>53.74952156152939</v>
+        <v>53.74952156152938</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
@@ -9775,7 +9775,7 @@
         <v>1179</v>
       </c>
       <c r="B1179">
-        <v>72.0245523193349</v>
+        <v>72.02455231933489</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
@@ -9911,7 +9911,7 @@
         <v>1196</v>
       </c>
       <c r="B1196">
-        <v>51.42312365663563</v>
+        <v>51.42312365663562</v>
       </c>
     </row>
     <row r="1197" spans="1:2">
@@ -10031,7 +10031,7 @@
         <v>1211</v>
       </c>
       <c r="B1211">
-        <v>9.202430613966245</v>
+        <v>9.202430613966239</v>
       </c>
     </row>
     <row r="1212" spans="1:2">
@@ -10055,7 +10055,7 @@
         <v>1214</v>
       </c>
       <c r="B1214">
-        <v>8.653420637241945</v>
+        <v>8.653420637241943</v>
       </c>
     </row>
     <row r="1215" spans="1:2">
@@ -10231,7 +10231,7 @@
         <v>1236</v>
       </c>
       <c r="B1236">
-        <v>2.197056863401348</v>
+        <v>2.197056863401347</v>
       </c>
     </row>
     <row r="1237" spans="1:2">
@@ -10279,7 +10279,7 @@
         <v>1242</v>
       </c>
       <c r="B1242">
-        <v>0.3346167891019776</v>
+        <v>0.3346167891019775</v>
       </c>
     </row>
     <row r="1243" spans="1:2">
@@ -10375,7 +10375,7 @@
         <v>1254</v>
       </c>
       <c r="B1254">
-        <v>19.51351966008449</v>
+        <v>19.51351966008448</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
@@ -10415,7 +10415,7 @@
         <v>1259</v>
       </c>
       <c r="B1259">
-        <v>1.951451610161594</v>
+        <v>1.951451610161593</v>
       </c>
     </row>
     <row r="1260" spans="1:2">
@@ -10719,7 +10719,7 @@
         <v>1297</v>
       </c>
       <c r="B1297">
-        <v>21.33738865498564</v>
+        <v>21.33738865498563</v>
       </c>
     </row>
     <row r="1298" spans="1:2">
@@ -10735,7 +10735,7 @@
         <v>1299</v>
       </c>
       <c r="B1299">
-        <v>25.26717821239562</v>
+        <v>25.26717821239561</v>
       </c>
     </row>
     <row r="1300" spans="1:2">
@@ -10759,7 +10759,7 @@
         <v>1302</v>
       </c>
       <c r="B1302">
-        <v>25.52103634608408</v>
+        <v>25.52103634608407</v>
       </c>
     </row>
     <row r="1303" spans="1:2">
@@ -11199,7 +11199,7 @@
         <v>1357</v>
       </c>
       <c r="B1357">
-        <v>0.7405817225660597</v>
+        <v>0.7405817225660596</v>
       </c>
     </row>
     <row r="1358" spans="1:2">
@@ -11495,7 +11495,7 @@
         <v>1394</v>
       </c>
       <c r="B1394">
-        <v>3.756965565911384</v>
+        <v>3.756965565911383</v>
       </c>
     </row>
     <row r="1395" spans="1:2">
@@ -11519,7 +11519,7 @@
         <v>1397</v>
       </c>
       <c r="B1397">
-        <v>7.759817733259636</v>
+        <v>7.759817733259635</v>
       </c>
     </row>
     <row r="1398" spans="1:2">
@@ -11655,7 +11655,7 @@
         <v>1414</v>
       </c>
       <c r="B1414">
-        <v>3.88975605352884</v>
+        <v>3.889756053528839</v>
       </c>
     </row>
     <row r="1415" spans="1:2">
@@ -11735,7 +11735,7 @@
         <v>1424</v>
       </c>
       <c r="B1424">
-        <v>3.645569264116207</v>
+        <v>3.645569264116206</v>
       </c>
     </row>
     <row r="1425" spans="1:2">
@@ -11743,7 +11743,7 @@
         <v>1425</v>
       </c>
       <c r="B1425">
-        <v>6.026624917720307</v>
+        <v>6.026624917720306</v>
       </c>
     </row>
     <row r="1426" spans="1:2">
@@ -11847,7 +11847,7 @@
         <v>1438</v>
       </c>
       <c r="B1438">
-        <v>37.76777168124891</v>
+        <v>37.7677716812489</v>
       </c>
     </row>
     <row r="1439" spans="1:2">
@@ -11871,7 +11871,7 @@
         <v>1441</v>
       </c>
       <c r="B1441">
-        <v>57.01286757702347</v>
+        <v>57.01286757702346</v>
       </c>
     </row>
     <row r="1442" spans="1:2">
@@ -11975,7 +11975,7 @@
         <v>1454</v>
       </c>
       <c r="B1454">
-        <v>7.549890948266515</v>
+        <v>7.549890948266514</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
@@ -12015,7 +12015,7 @@
         <v>1459</v>
       </c>
       <c r="B1459">
-        <v>45.32665991040233</v>
+        <v>45.32665991040232</v>
       </c>
     </row>
     <row r="1460" spans="1:2">
@@ -12047,7 +12047,7 @@
         <v>1463</v>
       </c>
       <c r="B1463">
-        <v>54.06017686251042</v>
+        <v>54.06017686251041</v>
       </c>
     </row>
     <row r="1464" spans="1:2">
@@ -12063,7 +12063,7 @@
         <v>1465</v>
       </c>
       <c r="B1465">
-        <v>68.47311747283672</v>
+        <v>68.47311747283671</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
@@ -12111,7 +12111,7 @@
         <v>1471</v>
       </c>
       <c r="B1471">
-        <v>79.97381117198523</v>
+        <v>79.97381117198522</v>
       </c>
     </row>
     <row r="1472" spans="1:2">
@@ -12151,7 +12151,7 @@
         <v>1476</v>
       </c>
       <c r="B1476">
-        <v>8.003770065841341</v>
+        <v>8.003770065841339</v>
       </c>
     </row>
     <row r="1477" spans="1:2">
@@ -12239,7 +12239,7 @@
         <v>1487</v>
       </c>
       <c r="B1487">
-        <v>44.46034192011939</v>
+        <v>44.46034192011938</v>
       </c>
     </row>
     <row r="1488" spans="1:2">
@@ -12551,7 +12551,7 @@
         <v>1526</v>
       </c>
       <c r="B1526">
-        <v>1.905823380152409</v>
+        <v>1.905823380152408</v>
       </c>
     </row>
     <row r="1527" spans="1:2">
@@ -12583,7 +12583,7 @@
         <v>1530</v>
       </c>
       <c r="B1530">
-        <v>0.8411783565865665</v>
+        <v>0.8411783565865664</v>
       </c>
     </row>
     <row r="1531" spans="1:2">
@@ -12631,7 +12631,7 @@
         <v>1536</v>
       </c>
       <c r="B1536">
-        <v>33.93088564309458</v>
+        <v>33.93088564309457</v>
       </c>
     </row>
     <row r="1537" spans="1:2">
@@ -12695,7 +12695,7 @@
         <v>1544</v>
       </c>
       <c r="B1544">
-        <v>4.016860962996265</v>
+        <v>4.016860962996264</v>
       </c>
     </row>
     <row r="1545" spans="1:2">
@@ -12703,7 +12703,7 @@
         <v>1545</v>
       </c>
       <c r="B1545">
-        <v>3.71142232650341</v>
+        <v>3.711422326503409</v>
       </c>
     </row>
     <row r="1546" spans="1:2">
@@ -13223,7 +13223,7 @@
         <v>1610</v>
       </c>
       <c r="B1610">
-        <v>73.00546108573442</v>
+        <v>73.00546108573441</v>
       </c>
     </row>
     <row r="1611" spans="1:2">
@@ -13255,7 +13255,7 @@
         <v>1614</v>
       </c>
       <c r="B1614">
-        <v>85.56589966068236</v>
+        <v>85.56589966068235</v>
       </c>
     </row>
     <row r="1615" spans="1:2">
@@ -13391,7 +13391,7 @@
         <v>1631</v>
       </c>
       <c r="B1631">
-        <v>47.71636115964694</v>
+        <v>47.71636115964693</v>
       </c>
     </row>
     <row r="1632" spans="1:2">
@@ -13431,7 +13431,7 @@
         <v>1636</v>
       </c>
       <c r="B1636">
-        <v>74.39901387456912</v>
+        <v>74.39901387456911</v>
       </c>
     </row>
     <row r="1637" spans="1:2">
@@ -13455,7 +13455,7 @@
         <v>1639</v>
       </c>
       <c r="B1639">
-        <v>75.77468933004548</v>
+        <v>75.77468933004546</v>
       </c>
     </row>
     <row r="1640" spans="1:2">
@@ -13495,7 +13495,7 @@
         <v>1644</v>
       </c>
       <c r="B1644">
-        <v>4.35512355581919</v>
+        <v>4.355123555819189</v>
       </c>
     </row>
     <row r="1645" spans="1:2">
@@ -13623,7 +13623,7 @@
         <v>1660</v>
       </c>
       <c r="B1660">
-        <v>57.32645358839111</v>
+        <v>57.3264535883911</v>
       </c>
     </row>
     <row r="1661" spans="1:2">
@@ -13647,7 +13647,7 @@
         <v>1663</v>
       </c>
       <c r="B1663">
-        <v>6.351904463530533</v>
+        <v>6.351904463530532</v>
       </c>
     </row>
     <row r="1664" spans="1:2">
@@ -13663,7 +13663,7 @@
         <v>1665</v>
       </c>
       <c r="B1665">
-        <v>6.564761958910269</v>
+        <v>6.564761958910268</v>
       </c>
     </row>
     <row r="1666" spans="1:2">
@@ -13743,7 +13743,7 @@
         <v>1675</v>
       </c>
       <c r="B1675">
-        <v>8.689673524724354</v>
+        <v>8.689673524724352</v>
       </c>
     </row>
     <row r="1676" spans="1:2">
@@ -13887,7 +13887,7 @@
         <v>1693</v>
       </c>
       <c r="B1693">
-        <v>1.896272195002436</v>
+        <v>1.896272195002435</v>
       </c>
     </row>
     <row r="1694" spans="1:2">
@@ -13935,7 +13935,7 @@
         <v>1699</v>
       </c>
       <c r="B1699">
-        <v>4.040042882154378</v>
+        <v>4.040042882154377</v>
       </c>
     </row>
     <row r="1700" spans="1:2">
@@ -13951,7 +13951,7 @@
         <v>1701</v>
       </c>
       <c r="B1701">
-        <v>6.350292572817896</v>
+        <v>6.350292572817895</v>
       </c>
     </row>
     <row r="1702" spans="1:2">
@@ -14055,7 +14055,7 @@
         <v>1714</v>
       </c>
       <c r="B1714">
-        <v>6.504447939153764</v>
+        <v>6.504447939153763</v>
       </c>
     </row>
     <row r="1715" spans="1:2">
@@ -14087,7 +14087,7 @@
         <v>1718</v>
       </c>
       <c r="B1718">
-        <v>3.784133251195291</v>
+        <v>3.78413325119529</v>
       </c>
     </row>
     <row r="1719" spans="1:2">
@@ -14399,7 +14399,7 @@
         <v>1757</v>
       </c>
       <c r="B1757">
-        <v>53.9071937803292</v>
+        <v>53.90719378032919</v>
       </c>
     </row>
     <row r="1758" spans="1:2">
@@ -14503,7 +14503,7 @@
         <v>1770</v>
       </c>
       <c r="B1770">
-        <v>5.31929796591115</v>
+        <v>5.319297965911149</v>
       </c>
     </row>
     <row r="1771" spans="1:2">
@@ -14551,7 +14551,7 @@
         <v>1776</v>
       </c>
       <c r="B1776">
-        <v>30.14470089462866</v>
+        <v>30.14470089462865</v>
       </c>
     </row>
     <row r="1777" spans="1:2">
@@ -14815,7 +14815,7 @@
         <v>1809</v>
       </c>
       <c r="B1809">
-        <v>8.76877339805905</v>
+        <v>8.768773398059048</v>
       </c>
     </row>
     <row r="1810" spans="1:2">
@@ -14863,7 +14863,7 @@
         <v>1815</v>
       </c>
       <c r="B1815">
-        <v>6.292909263448005</v>
+        <v>6.292909263448004</v>
       </c>
     </row>
     <row r="1816" spans="1:2">
@@ -14927,7 +14927,7 @@
         <v>1823</v>
       </c>
       <c r="B1823">
-        <v>41.63249946807607</v>
+        <v>41.63249946807606</v>
       </c>
     </row>
     <row r="1824" spans="1:2">
@@ -14951,7 +14951,7 @@
         <v>1826</v>
       </c>
       <c r="B1826">
-        <v>54.52381524567267</v>
+        <v>54.52381524567266</v>
       </c>
     </row>
     <row r="1827" spans="1:2">
@@ -14991,7 +14991,7 @@
         <v>1831</v>
       </c>
       <c r="B1831">
-        <v>5.560729887560366</v>
+        <v>5.560729887560365</v>
       </c>
     </row>
     <row r="1832" spans="1:2">
@@ -15007,7 +15007,7 @@
         <v>1833</v>
       </c>
       <c r="B1833">
-        <v>4.111405680068415</v>
+        <v>4.111405680068414</v>
       </c>
     </row>
     <row r="1834" spans="1:2">
@@ -15143,7 +15143,7 @@
         <v>1850</v>
       </c>
       <c r="B1850">
-        <v>30.052676588489</v>
+        <v>30.05267658848899</v>
       </c>
     </row>
     <row r="1851" spans="1:2">
@@ -15199,7 +15199,7 @@
         <v>1857</v>
       </c>
       <c r="B1857">
-        <v>2.779819831648273</v>
+        <v>2.779819831648272</v>
       </c>
     </row>
     <row r="1858" spans="1:2">
@@ -15599,7 +15599,7 @@
         <v>1907</v>
       </c>
       <c r="B1907">
-        <v>1.789913784361847</v>
+        <v>1.789913784361846</v>
       </c>
     </row>
     <row r="1908" spans="1:2">
@@ -15935,7 +15935,7 @@
         <v>1949</v>
       </c>
       <c r="B1949">
-        <v>29.00324781325045</v>
+        <v>29.00324781325044</v>
       </c>
     </row>
     <row r="1950" spans="1:2">
@@ -16119,7 +16119,7 @@
         <v>1972</v>
       </c>
       <c r="B1972">
-        <v>51.2247145634619</v>
+        <v>51.22471456346189</v>
       </c>
     </row>
     <row r="1973" spans="1:2">
@@ -16151,7 +16151,7 @@
         <v>1976</v>
       </c>
       <c r="B1976">
-        <v>6.484255344589998</v>
+        <v>6.484255344589997</v>
       </c>
     </row>
     <row r="1977" spans="1:2">
@@ -16231,7 +16231,7 @@
         <v>1986</v>
       </c>
       <c r="B1986">
-        <v>43.60955669488551</v>
+        <v>43.6095566948855</v>
       </c>
     </row>
     <row r="1987" spans="1:2">
@@ -16287,7 +16287,7 @@
         <v>1993</v>
       </c>
       <c r="B1993">
-        <v>41.92791507504671</v>
+        <v>41.9279150750467</v>
       </c>
     </row>
     <row r="1994" spans="1:2">
@@ -16295,7 +16295,7 @@
         <v>1994</v>
       </c>
       <c r="B1994">
-        <v>45.01336697007335</v>
+        <v>45.01336697007334</v>
       </c>
     </row>
     <row r="1995" spans="1:2">
@@ -16319,7 +16319,7 @@
         <v>1997</v>
       </c>
       <c r="B1997">
-        <v>45.18657195392221</v>
+        <v>45.1865719539222</v>
       </c>
     </row>
     <row r="1998" spans="1:2">
@@ -16415,7 +16415,7 @@
         <v>2009</v>
       </c>
       <c r="B2009">
-        <v>8.19362148468616</v>
+        <v>8.193621484686158</v>
       </c>
     </row>
     <row r="2010" spans="1:2">
@@ -16455,7 +16455,7 @@
         <v>2014</v>
       </c>
       <c r="B2014">
-        <v>33.92854107478529</v>
+        <v>33.92854107478528</v>
       </c>
     </row>
     <row r="2015" spans="1:2">
@@ -16519,7 +16519,7 @@
         <v>2022</v>
       </c>
       <c r="B2022">
-        <v>41.97158265980725</v>
+        <v>41.97158265980724</v>
       </c>
     </row>
     <row r="2023" spans="1:2">
@@ -16855,7 +16855,7 @@
         <v>2064</v>
       </c>
       <c r="B2064">
-        <v>41.97890943577378</v>
+        <v>41.97890943577377</v>
       </c>
     </row>
     <row r="2065" spans="1:2">
@@ -17031,7 +17031,7 @@
         <v>2086</v>
       </c>
       <c r="B2086">
-        <v>18.96802653582413</v>
+        <v>18.96802653582412</v>
       </c>
     </row>
     <row r="2087" spans="1:2">
@@ -17047,7 +17047,7 @@
         <v>2088</v>
       </c>
       <c r="B2088">
-        <v>32.30316909436947</v>
+        <v>32.30316909436946</v>
       </c>
     </row>
     <row r="2089" spans="1:2">
@@ -17159,7 +17159,7 @@
         <v>2102</v>
       </c>
       <c r="B2102">
-        <v>2.576129598357865</v>
+        <v>2.576129598357864</v>
       </c>
     </row>
     <row r="2103" spans="1:2">
@@ -17223,7 +17223,7 @@
         <v>2110</v>
       </c>
       <c r="B2110">
-        <v>4.387478598487403</v>
+        <v>4.387478598487402</v>
       </c>
     </row>
     <row r="2111" spans="1:2">
@@ -17407,7 +17407,7 @@
         <v>2133</v>
       </c>
       <c r="B2133">
-        <v>0.829552228482871</v>
+        <v>0.8295522284828709</v>
       </c>
     </row>
     <row r="2134" spans="1:2">
@@ -17423,7 +17423,7 @@
         <v>2135</v>
       </c>
       <c r="B2135">
-        <v>4.37604882797961</v>
+        <v>4.376048827979609</v>
       </c>
     </row>
     <row r="2136" spans="1:2">
@@ -17631,7 +17631,7 @@
         <v>2161</v>
       </c>
       <c r="B2161">
-        <v>29.33934168038728</v>
+        <v>29.33934168038727</v>
       </c>
     </row>
     <row r="2162" spans="1:2">
@@ -17695,7 +17695,7 @@
         <v>2169</v>
       </c>
       <c r="B2169">
-        <v>1.86228474664888</v>
+        <v>1.862284746648879</v>
       </c>
     </row>
     <row r="2170" spans="1:2">
@@ -17831,7 +17831,7 @@
         <v>2186</v>
       </c>
       <c r="B2186">
-        <v>25.75985993548921</v>
+        <v>25.7598599354892</v>
       </c>
     </row>
     <row r="2187" spans="1:2">
@@ -17991,7 +17991,7 @@
         <v>2206</v>
       </c>
       <c r="B2206">
-        <v>0.486840817293067</v>
+        <v>0.4868408172930669</v>
       </c>
     </row>
     <row r="2207" spans="1:2">
@@ -18199,7 +18199,7 @@
         <v>2232</v>
       </c>
       <c r="B2232">
-        <v>1.412253651811678</v>
+        <v>1.412253651811677</v>
       </c>
     </row>
     <row r="2233" spans="1:2">
@@ -18263,7 +18263,7 @@
         <v>2240</v>
       </c>
       <c r="B2240">
-        <v>0.4264740447496031</v>
+        <v>0.426474044749603</v>
       </c>
     </row>
     <row r="2241" spans="1:2">
@@ -18391,7 +18391,7 @@
         <v>2256</v>
       </c>
       <c r="B2256">
-        <v>0.6071669936362555</v>
+        <v>0.6071669936362554</v>
       </c>
     </row>
     <row r="2257" spans="1:2">
@@ -18439,7 +18439,7 @@
         <v>2262</v>
       </c>
       <c r="B2262">
-        <v>2.99586007850787</v>
+        <v>2.995860078507869</v>
       </c>
     </row>
     <row r="2263" spans="1:2">
@@ -18447,7 +18447,7 @@
         <v>2263</v>
       </c>
       <c r="B2263">
-        <v>0.0423502304417577</v>
+        <v>0.0423502304417576</v>
       </c>
     </row>
     <row r="2264" spans="1:2">
@@ -18559,7 +18559,7 @@
         <v>2277</v>
       </c>
       <c r="B2277">
-        <v>0.2477942008275154</v>
+        <v>0.2477942008275153</v>
       </c>
     </row>
     <row r="2278" spans="1:2">
@@ -18599,7 +18599,7 @@
         <v>2282</v>
       </c>
       <c r="B2282">
-        <v>7.660378729841842</v>
+        <v>7.660378729841841</v>
       </c>
     </row>
     <row r="2283" spans="1:2">
@@ -18631,7 +18631,7 @@
         <v>2286</v>
       </c>
       <c r="B2286">
-        <v>9.90111197013489</v>
+        <v>9.901111970134888</v>
       </c>
     </row>
     <row r="2287" spans="1:2">
@@ -18959,7 +18959,7 @@
         <v>2327</v>
       </c>
       <c r="B2327">
-        <v>0.8485549546296726</v>
+        <v>0.8485549546296725</v>
       </c>
     </row>
     <row r="2328" spans="1:2">
@@ -18991,7 +18991,7 @@
         <v>2331</v>
       </c>
       <c r="B2331">
-        <v>9.647019379615504</v>
+        <v>9.647019379615502</v>
       </c>
     </row>
     <row r="2332" spans="1:2">
@@ -19359,7 +19359,7 @@
         <v>2377</v>
       </c>
       <c r="B2377">
-        <v>43.52310073848041</v>
+        <v>43.5231007384804</v>
       </c>
     </row>
     <row r="2378" spans="1:2">
@@ -19399,7 +19399,7 @@
         <v>2382</v>
       </c>
       <c r="B2382">
-        <v>55.82065459174912</v>
+        <v>55.82065459174911</v>
       </c>
     </row>
     <row r="2383" spans="1:2">
@@ -19463,7 +19463,7 @@
         <v>2390</v>
       </c>
       <c r="B2390">
-        <v>1.771204129253707</v>
+        <v>1.771204129253706</v>
       </c>
     </row>
     <row r="2391" spans="1:2">
@@ -19479,7 +19479,7 @@
         <v>2392</v>
       </c>
       <c r="B2392">
-        <v>0.6207830740924616</v>
+        <v>0.6207830740924615</v>
       </c>
     </row>
     <row r="2393" spans="1:2">
@@ -19959,7 +19959,7 @@
         <v>2452</v>
       </c>
       <c r="B2452">
-        <v>4.537267206347216</v>
+        <v>4.537267206347215</v>
       </c>
     </row>
     <row r="2453" spans="1:2">
@@ -20087,7 +20087,7 @@
         <v>2468</v>
       </c>
       <c r="B2468">
-        <v>0.3951916420828911</v>
+        <v>0.395191642082891</v>
       </c>
     </row>
     <row r="2469" spans="1:2">
@@ -20287,7 +20287,7 @@
         <v>2493</v>
       </c>
       <c r="B2493">
-        <v>1.989284150542387</v>
+        <v>1.989284150542386</v>
       </c>
     </row>
     <row r="2494" spans="1:2">
@@ -20711,7 +20711,7 @@
         <v>2546</v>
       </c>
       <c r="B2546">
-        <v>5.2853310325303</v>
+        <v>5.285331032530299</v>
       </c>
     </row>
     <row r="2547" spans="1:2">
@@ -20743,7 +20743,7 @@
         <v>2550</v>
       </c>
       <c r="B2550">
-        <v>7.871155420847082</v>
+        <v>7.871155420847081</v>
       </c>
     </row>
     <row r="2551" spans="1:2">
@@ -20751,7 +20751,7 @@
         <v>2551</v>
       </c>
       <c r="B2551">
-        <v>0.3674114383281822</v>
+        <v>0.3674114383281821</v>
       </c>
     </row>
     <row r="2552" spans="1:2">
@@ -20887,7 +20887,7 @@
         <v>2568</v>
       </c>
       <c r="B2568">
-        <v>27.79172144652832</v>
+        <v>27.79172144652831</v>
       </c>
     </row>
     <row r="2569" spans="1:2">
@@ -20911,7 +20911,7 @@
         <v>2571</v>
       </c>
       <c r="B2571">
-        <v>37.85452070869267</v>
+        <v>37.85452070869266</v>
       </c>
     </row>
     <row r="2572" spans="1:2">
@@ -20975,7 +20975,7 @@
         <v>2579</v>
       </c>
       <c r="B2579">
-        <v>2.668655055973638</v>
+        <v>2.668655055973637</v>
       </c>
     </row>
     <row r="2580" spans="1:2">
@@ -21167,7 +21167,7 @@
         <v>2603</v>
       </c>
       <c r="B2603">
-        <v>0.8777858600257552</v>
+        <v>0.8777858600257551</v>
       </c>
     </row>
     <row r="2604" spans="1:2">
@@ -21247,7 +21247,7 @@
         <v>2613</v>
       </c>
       <c r="B2613">
-        <v>0.4177962112948406</v>
+        <v>0.4177962112948405</v>
       </c>
     </row>
     <row r="2614" spans="1:2">
@@ -21279,7 +21279,7 @@
         <v>2617</v>
       </c>
       <c r="B2617">
-        <v>9.028668795143931</v>
+        <v>9.028668795143927</v>
       </c>
     </row>
     <row r="2618" spans="1:2">
@@ -21431,7 +21431,7 @@
         <v>2636</v>
       </c>
       <c r="B2636">
-        <v>0.2249367113092011</v>
+        <v>0.224936711309201</v>
       </c>
     </row>
     <row r="2637" spans="1:2">
@@ -21607,7 +21607,7 @@
         <v>2658</v>
       </c>
       <c r="B2658">
-        <v>7.040680018592427</v>
+        <v>7.040680018592426</v>
       </c>
     </row>
     <row r="2659" spans="1:2">
@@ -22055,7 +22055,7 @@
         <v>2714</v>
       </c>
       <c r="B2714">
-        <v>32.07105683174968</v>
+        <v>32.07105683174967</v>
       </c>
     </row>
     <row r="2715" spans="1:2">
@@ -22095,7 +22095,7 @@
         <v>2719</v>
       </c>
       <c r="B2719">
-        <v>1.41525469924757</v>
+        <v>1.415254699247569</v>
       </c>
     </row>
     <row r="2720" spans="1:2">
@@ -22111,7 +22111,7 @@
         <v>2721</v>
       </c>
       <c r="B2721">
-        <v>2.556833801172402</v>
+        <v>2.556833801172401</v>
       </c>
     </row>
     <row r="2722" spans="1:2">
@@ -22231,7 +22231,7 @@
         <v>2736</v>
       </c>
       <c r="B2736">
-        <v>6.076593529812066</v>
+        <v>6.076593529812065</v>
       </c>
     </row>
     <row r="2737" spans="1:2">
@@ -22239,7 +22239,7 @@
         <v>2737</v>
       </c>
       <c r="B2737">
-        <v>7.808819210923813</v>
+        <v>7.808819210923812</v>
       </c>
     </row>
     <row r="2738" spans="1:2">
@@ -22407,7 +22407,7 @@
         <v>2758</v>
       </c>
       <c r="B2758">
-        <v>0.8691490565164053</v>
+        <v>0.8691490565164052</v>
       </c>
     </row>
     <row r="2759" spans="1:2">
@@ -22415,7 +22415,7 @@
         <v>2759</v>
       </c>
       <c r="B2759">
-        <v>1.800939116836287</v>
+        <v>1.800939116836286</v>
       </c>
     </row>
     <row r="2760" spans="1:2">
@@ -22431,7 +22431,7 @@
         <v>2761</v>
       </c>
       <c r="B2761">
-        <v>3.82917826983754</v>
+        <v>3.829178269837539</v>
       </c>
     </row>
     <row r="2762" spans="1:2">
@@ -22479,7 +22479,7 @@
         <v>2767</v>
       </c>
       <c r="B2767">
-        <v>0.5016614197181712</v>
+        <v>0.5016614197181711</v>
       </c>
     </row>
     <row r="2768" spans="1:2">
@@ -22487,7 +22487,7 @@
         <v>2768</v>
       </c>
       <c r="B2768">
-        <v>0.3297811169640654</v>
+        <v>0.3297811169640653</v>
       </c>
     </row>
     <row r="2769" spans="1:2">
@@ -22599,7 +22599,7 @@
         <v>2782</v>
       </c>
       <c r="B2782">
-        <v>0.7262622716170665</v>
+        <v>0.7262622716170664</v>
       </c>
     </row>
     <row r="2783" spans="1:2">
@@ -22671,7 +22671,7 @@
         <v>2791</v>
       </c>
       <c r="B2791">
-        <v>0.603562219860721</v>
+        <v>0.6035622198607209</v>
       </c>
     </row>
     <row r="2792" spans="1:2">
@@ -22823,7 +22823,7 @@
         <v>2810</v>
       </c>
       <c r="B2810">
-        <v>7.621722659842411</v>
+        <v>7.62172265984241</v>
       </c>
     </row>
     <row r="2811" spans="1:2">
@@ -22887,7 +22887,7 @@
         <v>2818</v>
       </c>
       <c r="B2818">
-        <v>0.768420540528501</v>
+        <v>0.7684205405285008</v>
       </c>
     </row>
     <row r="2819" spans="1:2">
@@ -23383,7 +23383,7 @@
         <v>2880</v>
       </c>
       <c r="B2880">
-        <v>0.8702422114906121</v>
+        <v>0.870242211490612</v>
       </c>
     </row>
     <row r="2881" spans="1:2">
@@ -23599,7 +23599,7 @@
         <v>2907</v>
       </c>
       <c r="B2907">
-        <v>0.8278113865132226</v>
+        <v>0.8278113865132225</v>
       </c>
     </row>
     <row r="2908" spans="1:2">
@@ -23799,7 +23799,7 @@
         <v>2932</v>
       </c>
       <c r="B2932">
-        <v>0.7473458021383637</v>
+        <v>0.7473458021383635</v>
       </c>
     </row>
     <row r="2933" spans="1:2">
@@ -23959,7 +23959,7 @@
         <v>2952</v>
       </c>
       <c r="B2952">
-        <v>3.411376197121926</v>
+        <v>3.411376197121925</v>
       </c>
     </row>
     <row r="2953" spans="1:2">
@@ -23967,7 +23967,7 @@
         <v>2953</v>
       </c>
       <c r="B2953">
-        <v>7.033646313664555</v>
+        <v>7.033646313664554</v>
       </c>
     </row>
     <row r="2954" spans="1:2">
@@ -23999,7 +23999,7 @@
         <v>2957</v>
       </c>
       <c r="B2957">
-        <v>18.14502444505534</v>
+        <v>18.14502444505533</v>
       </c>
     </row>
     <row r="2958" spans="1:2">
@@ -24031,7 +24031,7 @@
         <v>2961</v>
       </c>
       <c r="B2961">
-        <v>0.3160448773820082</v>
+        <v>0.3160448773820081</v>
       </c>
     </row>
     <row r="2962" spans="1:2">
@@ -24175,7 +24175,7 @@
         <v>2979</v>
       </c>
       <c r="B2979">
-        <v>13.47745785491929</v>
+        <v>13.47745785491928</v>
       </c>
     </row>
     <row r="2980" spans="1:2">
@@ -24367,7 +24367,7 @@
         <v>3003</v>
       </c>
       <c r="B3003">
-        <v>4.009534187029732</v>
+        <v>4.009534187029731</v>
       </c>
     </row>
     <row r="3004" spans="1:2">
@@ -24751,7 +24751,7 @@
         <v>3051</v>
       </c>
       <c r="B3051">
-        <v>0.2453705033377861</v>
+        <v>0.245370503337786</v>
       </c>
     </row>
     <row r="3052" spans="1:2">
@@ -24935,7 +24935,7 @@
         <v>3074</v>
       </c>
       <c r="B3074">
-        <v>0.4636149374791554</v>
+        <v>0.4636149374791553</v>
       </c>
     </row>
     <row r="3075" spans="1:2">
@@ -24967,7 +24967,7 @@
         <v>3078</v>
       </c>
       <c r="B3078">
-        <v>1.369415458090549</v>
+        <v>1.369415458090548</v>
       </c>
     </row>
     <row r="3079" spans="1:2">
@@ -25135,7 +25135,7 @@
         <v>3099</v>
       </c>
       <c r="B3099">
-        <v>0.8095032387280483</v>
+        <v>0.8095032387280482</v>
       </c>
     </row>
     <row r="3100" spans="1:2">
@@ -25495,7 +25495,7 @@
         <v>3144</v>
       </c>
       <c r="B3144">
-        <v>0.1296657642032483</v>
+        <v>0.1296657642032482</v>
       </c>
     </row>
     <row r="3145" spans="1:2">
@@ -25519,7 +25519,7 @@
         <v>3147</v>
       </c>
       <c r="B3147">
-        <v>0.993440484012682</v>
+        <v>0.9934404840126818</v>
       </c>
     </row>
     <row r="3148" spans="1:2">
@@ -25887,7 +25887,7 @@
         <v>3193</v>
       </c>
       <c r="B3193">
-        <v>0.5624883137923334</v>
+        <v>0.5624883137923333</v>
       </c>
     </row>
     <row r="3194" spans="1:2">
@@ -25911,7 +25911,7 @@
         <v>3196</v>
       </c>
       <c r="B3196">
-        <v>3.570924070569162</v>
+        <v>3.570924070569161</v>
       </c>
     </row>
     <row r="3197" spans="1:2">
@@ -26079,7 +26079,7 @@
         <v>3217</v>
       </c>
       <c r="B3217">
-        <v>2.783354268374529</v>
+        <v>2.783354268374528</v>
       </c>
     </row>
     <row r="3218" spans="1:2">
@@ -26087,7 +26087,7 @@
         <v>3218</v>
       </c>
       <c r="B3218">
-        <v>5.364782591111391</v>
+        <v>5.36478259111139</v>
       </c>
     </row>
     <row r="3219" spans="1:2">
@@ -26295,7 +26295,7 @@
         <v>3244</v>
       </c>
       <c r="B3244">
-        <v>6.075743623799948</v>
+        <v>6.075743623799947</v>
       </c>
     </row>
     <row r="3245" spans="1:2">
@@ -26671,7 +26671,7 @@
         <v>3291</v>
       </c>
       <c r="B3291">
-        <v>0.1348000757295564</v>
+        <v>0.1348000757295563</v>
       </c>
     </row>
     <row r="3292" spans="1:2">
@@ -26687,7 +26687,7 @@
         <v>3293</v>
       </c>
       <c r="B3293">
-        <v>0.4653469873176439</v>
+        <v>0.4653469873176438</v>
       </c>
     </row>
     <row r="3294" spans="1:2">
@@ -26743,7 +26743,7 @@
         <v>3300</v>
       </c>
       <c r="B3300">
-        <v>0.3318531292074011</v>
+        <v>0.331853129207401</v>
       </c>
     </row>
     <row r="3301" spans="1:2">
@@ -27071,7 +27071,7 @@
         <v>3341</v>
       </c>
       <c r="B3341">
-        <v>21.51657228802319</v>
+        <v>21.51657228802318</v>
       </c>
     </row>
     <row r="3342" spans="1:2">
@@ -27079,7 +27079,7 @@
         <v>3342</v>
       </c>
       <c r="B3342">
-        <v>9.762342833328743</v>
+        <v>9.76234283332874</v>
       </c>
     </row>
     <row r="3343" spans="1:2">
@@ -27455,7 +27455,7 @@
         <v>3389</v>
       </c>
       <c r="B3389">
-        <v>23.81383893167401</v>
+        <v>23.813838931674</v>
       </c>
     </row>
     <row r="3390" spans="1:2">
@@ -27471,7 +27471,7 @@
         <v>3391</v>
       </c>
       <c r="B3391">
-        <v>1.070336463136646</v>
+        <v>1.070336463136645</v>
       </c>
     </row>
     <row r="3392" spans="1:2">
@@ -27615,7 +27615,7 @@
         <v>3409</v>
       </c>
       <c r="B3409">
-        <v>3.804443074174522</v>
+        <v>3.804443074174521</v>
       </c>
     </row>
     <row r="3410" spans="1:2">
@@ -27655,7 +27655,7 @@
         <v>3414</v>
       </c>
       <c r="B3414">
-        <v>5.982195348259246</v>
+        <v>5.982195348259245</v>
       </c>
     </row>
     <row r="3415" spans="1:2">
@@ -27807,7 +27807,7 @@
         <v>3433</v>
       </c>
       <c r="B3433">
-        <v>0.6713729967861831</v>
+        <v>0.671372996786183</v>
       </c>
     </row>
     <row r="3434" spans="1:2">
@@ -27831,7 +27831,7 @@
         <v>3436</v>
       </c>
       <c r="B3436">
-        <v>3.422512896591057</v>
+        <v>3.422512896591056</v>
       </c>
     </row>
     <row r="3437" spans="1:2">
@@ -27847,7 +27847,7 @@
         <v>3438</v>
       </c>
       <c r="B3438">
-        <v>0.4384694423620119</v>
+        <v>0.4384694423620118</v>
       </c>
     </row>
     <row r="3439" spans="1:2">
@@ -28983,7 +28983,7 @@
         <v>3580</v>
       </c>
       <c r="B3580">
-        <v>0.6551280691131847</v>
+        <v>0.6551280691131846</v>
       </c>
     </row>
     <row r="3581" spans="1:2">
@@ -29567,7 +29567,7 @@
         <v>3653</v>
       </c>
       <c r="B3653">
-        <v>0.093847208000136</v>
+        <v>0.09384720800013591</v>
       </c>
     </row>
     <row r="3654" spans="1:2">
@@ -29959,7 +29959,7 @@
         <v>3702</v>
       </c>
       <c r="B3702">
-        <v>0.8644921577120765</v>
+        <v>0.8644921577120764</v>
       </c>
     </row>
     <row r="3703" spans="1:2">
@@ -31079,7 +31079,7 @@
         <v>3842</v>
       </c>
       <c r="B3842">
-        <v>0.4583689658871173</v>
+        <v>0.4583689658871172</v>
       </c>
     </row>
     <row r="3843" spans="1:2">
@@ -31279,7 +31279,7 @@
         <v>3867</v>
       </c>
       <c r="B3867">
-        <v>0.2078292755694224</v>
+        <v>0.2078292755694223</v>
       </c>
     </row>
     <row r="3868" spans="1:2">
@@ -42623,7 +42623,7 @@
         <v>5285</v>
       </c>
       <c r="B5285">
-        <v>0.3505452000532217</v>
+        <v>0.3505452000532216</v>
       </c>
     </row>
     <row r="5286" spans="1:2">
@@ -45487,7 +45487,7 @@
         <v>5643</v>
       </c>
       <c r="B5643">
-        <v>0.891601228788251</v>
+        <v>0.8916012287882509</v>
       </c>
     </row>
     <row r="5644" spans="1:2">
@@ -46631,7 +46631,7 @@
         <v>5786</v>
       </c>
       <c r="B5786">
-        <v>0.2914925580471153</v>
+        <v>0.2914925580471152</v>
       </c>
     </row>
     <row r="5787" spans="1:2">
@@ -46639,7 +46639,7 @@
         <v>5787</v>
       </c>
       <c r="B5787">
-        <v>0.5115408444314452</v>
+        <v>0.5115408444314451</v>
       </c>
     </row>
     <row r="5788" spans="1:2">
@@ -46647,7 +46647,7 @@
         <v>5788</v>
       </c>
       <c r="B5788">
-        <v>0.6965595218487391</v>
+        <v>0.696559521848739</v>
       </c>
     </row>
     <row r="5789" spans="1:2">
@@ -47615,7 +47615,7 @@
         <v>5909</v>
       </c>
       <c r="B5909">
-        <v>3.939050602231678</v>
+        <v>3.939050602231677</v>
       </c>
     </row>
     <row r="5910" spans="1:2">
@@ -47759,7 +47759,7 @@
         <v>5927</v>
       </c>
       <c r="B5927">
-        <v>0.4177053592728556</v>
+        <v>0.4177053592728555</v>
       </c>
     </row>
     <row r="5928" spans="1:2">
@@ -48167,7 +48167,7 @@
         <v>5978</v>
       </c>
       <c r="B5978">
-        <v>0.2595847417839</v>
+        <v>0.2595847417838999</v>
       </c>
     </row>
     <row r="5979" spans="1:2">
@@ -48175,7 +48175,7 @@
         <v>5979</v>
       </c>
       <c r="B5979">
-        <v>0.5203036684874194</v>
+        <v>0.5203036684874193</v>
       </c>
     </row>
     <row r="5980" spans="1:2">
@@ -48183,7 +48183,7 @@
         <v>5980</v>
       </c>
       <c r="B5980">
-        <v>0.506394516992552</v>
+        <v>0.5063945169925519</v>
       </c>
     </row>
     <row r="5981" spans="1:2">
@@ -49143,7 +49143,7 @@
         <v>6100</v>
       </c>
       <c r="B6100">
-        <v>0.3999657693026844</v>
+        <v>0.3999657693026843</v>
       </c>
     </row>
     <row r="6101" spans="1:2">
@@ -49343,7 +49343,7 @@
         <v>6125</v>
       </c>
       <c r="B6125">
-        <v>0.4531962620547445</v>
+        <v>0.4531962620547444</v>
       </c>
     </row>
     <row r="6126" spans="1:2">
@@ -50855,7 +50855,7 @@
         <v>6314</v>
       </c>
       <c r="B6314">
-        <v>0.3057756681873146</v>
+        <v>0.3057756681873145</v>
       </c>
     </row>
     <row r="6315" spans="1:2">
@@ -51063,7 +51063,7 @@
         <v>6340</v>
       </c>
       <c r="B6340">
-        <v>12.51003035629819</v>
+        <v>12.51003035629818</v>
       </c>
     </row>
     <row r="6341" spans="1:2">
@@ -51231,7 +51231,7 @@
         <v>6361</v>
       </c>
       <c r="B6361">
-        <v>0.5378410394409143</v>
+        <v>0.5378410394409142</v>
       </c>
     </row>
     <row r="6362" spans="1:2">
@@ -51247,7 +51247,7 @@
         <v>6363</v>
       </c>
       <c r="B6363">
-        <v>2.084086770128559</v>
+        <v>2.084086770128558</v>
       </c>
     </row>
     <row r="6364" spans="1:2">
@@ -51423,7 +51423,7 @@
         <v>6385</v>
       </c>
       <c r="B6385">
-        <v>0.5813884650756036</v>
+        <v>0.5813884650756035</v>
       </c>
     </row>
     <row r="6386" spans="1:2">
@@ -51495,7 +51495,7 @@
         <v>6394</v>
       </c>
       <c r="B6394">
-        <v>0.1422909714777404</v>
+        <v>0.1422909714777403</v>
       </c>
     </row>
     <row r="6395" spans="1:2">
@@ -51583,7 +51583,7 @@
         <v>6405</v>
       </c>
       <c r="B6405">
-        <v>0.3227122435115538</v>
+        <v>0.3227122435115537</v>
       </c>
     </row>
     <row r="6406" spans="1:2">
@@ -51695,7 +51695,7 @@
         <v>6419</v>
       </c>
       <c r="B6419">
-        <v>0.9395769578171131</v>
+        <v>0.939576957817113</v>
       </c>
     </row>
     <row r="6420" spans="1:2">
@@ -51855,7 +51855,7 @@
         <v>6439</v>
       </c>
       <c r="B6439">
-        <v>0.3191191925775657</v>
+        <v>0.3191191925775656</v>
       </c>
     </row>
     <row r="6440" spans="1:2">
@@ -51863,7 +51863,7 @@
         <v>6440</v>
       </c>
       <c r="B6440">
-        <v>0.3685016625920024</v>
+        <v>0.3685016625920023</v>
       </c>
     </row>
     <row r="6441" spans="1:2">
@@ -52207,7 +52207,7 @@
         <v>6483</v>
       </c>
       <c r="B6483">
-        <v>0.7562639538448284</v>
+        <v>0.7562639538448283</v>
       </c>
     </row>
     <row r="6484" spans="1:2">
@@ -52391,7 +52391,7 @@
         <v>6506</v>
       </c>
       <c r="B6506">
-        <v>0.5234131522076163</v>
+        <v>0.5234131522076162</v>
       </c>
     </row>
     <row r="6507" spans="1:2">
@@ -52615,7 +52615,7 @@
         <v>6534</v>
       </c>
       <c r="B6534">
-        <v>0.3098698705974136</v>
+        <v>0.3098698705974135</v>
       </c>
     </row>
     <row r="6535" spans="1:2">
@@ -52767,7 +52767,7 @@
         <v>6553</v>
       </c>
       <c r="B6553">
-        <v>0.5144363862934193</v>
+        <v>0.5144363862934191</v>
       </c>
     </row>
     <row r="6554" spans="1:2">
@@ -52959,7 +52959,7 @@
         <v>6577</v>
       </c>
       <c r="B6577">
-        <v>5.637133507339379</v>
+        <v>5.637133507339378</v>
       </c>
     </row>
     <row r="6578" spans="1:2">
@@ -52975,7 +52975,7 @@
         <v>6579</v>
       </c>
       <c r="B6579">
-        <v>6.658134391827773</v>
+        <v>6.658134391827772</v>
       </c>
     </row>
     <row r="6580" spans="1:2">
@@ -52999,7 +52999,7 @@
         <v>6582</v>
       </c>
       <c r="B6582">
-        <v>7.197590252691712</v>
+        <v>7.197590252691711</v>
       </c>
     </row>
     <row r="6583" spans="1:2">
@@ -53175,7 +53175,7 @@
         <v>6604</v>
       </c>
       <c r="B6604">
-        <v>0.7507688718699281</v>
+        <v>0.750768871869928</v>
       </c>
     </row>
     <row r="6605" spans="1:2">
@@ -53543,7 +53543,7 @@
         <v>6650</v>
       </c>
       <c r="B6650">
-        <v>0.6265858806579563</v>
+        <v>0.6265858806579562</v>
       </c>
     </row>
     <row r="6651" spans="1:2">
@@ -54271,7 +54271,7 @@
         <v>6741</v>
       </c>
       <c r="B6741">
-        <v>5.937179636720864</v>
+        <v>5.937179636720863</v>
       </c>
     </row>
     <row r="6742" spans="1:2">
@@ -54359,7 +54359,7 @@
         <v>6752</v>
       </c>
       <c r="B6752">
-        <v>3.704330007367807</v>
+        <v>3.704330007367806</v>
       </c>
     </row>
     <row r="6753" spans="1:2">
@@ -54447,7 +54447,7 @@
         <v>6763</v>
       </c>
       <c r="B6763">
-        <v>0.6730141946026866</v>
+        <v>0.6730141946026865</v>
       </c>
     </row>
     <row r="6764" spans="1:2">
@@ -54487,7 +54487,7 @@
         <v>6768</v>
       </c>
       <c r="B6768">
-        <v>8.9000106091716</v>
+        <v>8.900010609171598</v>
       </c>
     </row>
     <row r="6769" spans="1:2">
@@ -54735,7 +54735,7 @@
         <v>6799</v>
       </c>
       <c r="B6799">
-        <v>0.3384296433149617</v>
+        <v>0.3384296433149616</v>
       </c>
     </row>
     <row r="6800" spans="1:2">
@@ -54871,7 +54871,7 @@
         <v>6816</v>
       </c>
       <c r="B6816">
-        <v>0.6624782907628112</v>
+        <v>0.6624782907628111</v>
       </c>
     </row>
     <row r="6817" spans="1:2">
@@ -55111,7 +55111,7 @@
         <v>6846</v>
       </c>
       <c r="B6846">
-        <v>2.850394268468312</v>
+        <v>2.850394268468311</v>
       </c>
     </row>
     <row r="6847" spans="1:2">
@@ -55271,7 +55271,7 @@
         <v>6866</v>
       </c>
       <c r="B6866">
-        <v>0.6887843471930536</v>
+        <v>0.6887843471930535</v>
       </c>
     </row>
     <row r="6867" spans="1:2">
@@ -55487,7 +55487,7 @@
         <v>6893</v>
       </c>
       <c r="B6893">
-        <v>5.43643846006409</v>
+        <v>5.436438460064089</v>
       </c>
     </row>
     <row r="6894" spans="1:2">
@@ -55655,7 +55655,7 @@
         <v>6914</v>
       </c>
       <c r="B6914">
-        <v>4.994516640866647</v>
+        <v>4.994516640866646</v>
       </c>
     </row>
     <row r="6915" spans="1:2">
@@ -56111,7 +56111,7 @@
         <v>6971</v>
       </c>
       <c r="B6971">
-        <v>0.6470393084461316</v>
+        <v>0.6470393084461314</v>
       </c>
     </row>
     <row r="6972" spans="1:2">
@@ -56191,7 +56191,7 @@
         <v>6981</v>
       </c>
       <c r="B6981">
-        <v>1.917502261043064</v>
+        <v>1.917502261043063</v>
       </c>
     </row>
     <row r="6982" spans="1:2">
@@ -56207,7 +56207,7 @@
         <v>6983</v>
       </c>
       <c r="B6983">
-        <v>7.702141352851084</v>
+        <v>7.702141352851083</v>
       </c>
     </row>
     <row r="6984" spans="1:2">
@@ -56223,7 +56223,7 @@
         <v>6985</v>
       </c>
       <c r="B6985">
-        <v>17.03202856153115</v>
+        <v>17.03202856153114</v>
       </c>
     </row>
     <row r="6986" spans="1:2">
@@ -56239,7 +56239,7 @@
         <v>6987</v>
       </c>
       <c r="B6987">
-        <v>23.84502169018758</v>
+        <v>23.84502169018757</v>
       </c>
     </row>
     <row r="6988" spans="1:2">
@@ -56311,7 +56311,7 @@
         <v>6996</v>
       </c>
       <c r="B6996">
-        <v>0.5552084291919857</v>
+        <v>0.5552084291919855</v>
       </c>
     </row>
     <row r="6997" spans="1:2">
@@ -56431,7 +56431,7 @@
         <v>7011</v>
       </c>
       <c r="B7011">
-        <v>11.97218638614689</v>
+        <v>11.97218638614688</v>
       </c>
     </row>
     <row r="7012" spans="1:2">
@@ -56615,7 +56615,7 @@
         <v>7034</v>
       </c>
       <c r="B7034">
-        <v>3.427319261625103</v>
+        <v>3.427319261625102</v>
       </c>
     </row>
     <row r="7035" spans="1:2">
@@ -57023,7 +57023,7 @@
         <v>7085</v>
       </c>
       <c r="B7085">
-        <v>2.852472142132421</v>
+        <v>2.85247214213242</v>
       </c>
     </row>
     <row r="7086" spans="1:2">
@@ -57559,7 +57559,7 @@
         <v>7152</v>
       </c>
       <c r="B7152">
-        <v>1.203677924306785</v>
+        <v>1.203677924306784</v>
       </c>
     </row>
     <row r="7153" spans="1:2">
@@ -57591,7 +57591,7 @@
         <v>7156</v>
       </c>
       <c r="B7156">
-        <v>6.971222182429688</v>
+        <v>6.971222182429687</v>
       </c>
     </row>
     <row r="7157" spans="1:2">
@@ -57615,7 +57615,7 @@
         <v>7159</v>
       </c>
       <c r="B7159">
-        <v>0.3581416013753238</v>
+        <v>0.3581416013753237</v>
       </c>
     </row>
     <row r="7160" spans="1:2">
@@ -57623,7 +57623,7 @@
         <v>7160</v>
       </c>
       <c r="B7160">
-        <v>0.6870024752779926</v>
+        <v>0.6870024752779925</v>
       </c>
     </row>
     <row r="7161" spans="1:2">
@@ -57767,7 +57767,7 @@
         <v>7178</v>
       </c>
       <c r="B7178">
-        <v>18.48914845865149</v>
+        <v>18.48914845865148</v>
       </c>
     </row>
     <row r="7179" spans="1:2">
@@ -57791,7 +57791,7 @@
         <v>7181</v>
       </c>
       <c r="B7181">
-        <v>22.96498797529529</v>
+        <v>22.96498797529528</v>
       </c>
     </row>
     <row r="7182" spans="1:2">
@@ -57815,7 +57815,7 @@
         <v>7184</v>
       </c>
       <c r="B7184">
-        <v>2.117684434000696</v>
+        <v>2.117684434000695</v>
       </c>
     </row>
     <row r="7185" spans="1:2">
@@ -57967,7 +57967,7 @@
         <v>7203</v>
       </c>
       <c r="B7203">
-        <v>30.84631296118392</v>
+        <v>30.84631296118391</v>
       </c>
     </row>
     <row r="7204" spans="1:2">
@@ -58175,7 +58175,7 @@
         <v>7229</v>
       </c>
       <c r="B7229">
-        <v>46.9622893771713</v>
+        <v>46.96228937717129</v>
       </c>
     </row>
     <row r="7230" spans="1:2">
@@ -58183,7 +58183,7 @@
         <v>7230</v>
       </c>
       <c r="B7230">
-        <v>48.66913510633497</v>
+        <v>48.66913510633496</v>
       </c>
     </row>
     <row r="7231" spans="1:2">
@@ -58199,7 +58199,7 @@
         <v>7232</v>
       </c>
       <c r="B7232">
-        <v>5.428818613058895</v>
+        <v>5.428818613058894</v>
       </c>
     </row>
     <row r="7233" spans="1:2">
@@ -58207,7 +58207,7 @@
         <v>7233</v>
       </c>
       <c r="B7233">
-        <v>5.32073401400059</v>
+        <v>5.320734014000589</v>
       </c>
     </row>
     <row r="7234" spans="1:2">
@@ -58231,7 +58231,7 @@
         <v>7236</v>
       </c>
       <c r="B7236">
-        <v>1.748989344523177</v>
+        <v>1.748989344523176</v>
       </c>
     </row>
     <row r="7237" spans="1:2">
@@ -58247,7 +58247,7 @@
         <v>7238</v>
       </c>
       <c r="B7238">
-        <v>1.001880929926129</v>
+        <v>1.001880929926128</v>
       </c>
     </row>
     <row r="7239" spans="1:2">
@@ -58367,7 +58367,7 @@
         <v>7253</v>
       </c>
       <c r="B7253">
-        <v>26.51718480649399</v>
+        <v>26.51718480649398</v>
       </c>
     </row>
     <row r="7254" spans="1:2">
@@ -58543,7 +58543,7 @@
         <v>7275</v>
       </c>
       <c r="B7275">
-        <v>21.56243790557369</v>
+        <v>21.56243790557368</v>
       </c>
     </row>
     <row r="7276" spans="1:2">
@@ -58751,7 +58751,7 @@
         <v>7301</v>
       </c>
       <c r="B7301">
-        <v>31.52799619711021</v>
+        <v>31.5279961971102</v>
       </c>
     </row>
     <row r="7302" spans="1:2">
@@ -58791,7 +58791,7 @@
         <v>7306</v>
       </c>
       <c r="B7306">
-        <v>1.916658216451719</v>
+        <v>1.916658216451718</v>
       </c>
     </row>
     <row r="7307" spans="1:2">
@@ -58983,7 +58983,7 @@
         <v>7330</v>
       </c>
       <c r="B7330">
-        <v>1.769982023022489</v>
+        <v>1.769982023022488</v>
       </c>
     </row>
     <row r="7331" spans="1:2">
@@ -59103,7 +59103,7 @@
         <v>7345</v>
       </c>
       <c r="B7345">
-        <v>15.49566225555678</v>
+        <v>15.49566225555677</v>
       </c>
     </row>
     <row r="7346" spans="1:2">
@@ -59463,7 +59463,7 @@
         <v>7390</v>
       </c>
       <c r="B7390">
-        <v>0.950086485263509</v>
+        <v>0.9500864852635088</v>
       </c>
     </row>
     <row r="7391" spans="1:2">
@@ -59495,7 +59495,7 @@
         <v>7394</v>
       </c>
       <c r="B7394">
-        <v>8.341417209483076</v>
+        <v>8.341417209483074</v>
       </c>
     </row>
     <row r="7395" spans="1:2">
@@ -59583,7 +59583,7 @@
         <v>7405</v>
       </c>
       <c r="B7405">
-        <v>0.599687820729618</v>
+        <v>0.5996878207296179</v>
       </c>
     </row>
     <row r="7406" spans="1:2">
@@ -59727,7 +59727,7 @@
         <v>7423</v>
       </c>
       <c r="B7423">
-        <v>45.19653636923669</v>
+        <v>45.19653636923668</v>
       </c>
     </row>
     <row r="7424" spans="1:2">
@@ -59847,7 +59847,7 @@
         <v>7438</v>
       </c>
       <c r="B7438">
-        <v>14.60721740185491</v>
+        <v>14.6072174018549</v>
       </c>
     </row>
     <row r="7439" spans="1:2">
@@ -59911,7 +59911,7 @@
         <v>7446</v>
       </c>
       <c r="B7446">
-        <v>41.31656888839914</v>
+        <v>41.31656888839913</v>
       </c>
     </row>
     <row r="7447" spans="1:2">
@@ -59927,7 +59927,7 @@
         <v>7448</v>
       </c>
       <c r="B7448">
-        <v>2.664809963946401</v>
+        <v>2.6648099639464</v>
       </c>
     </row>
     <row r="7449" spans="1:2">
@@ -59967,7 +59967,7 @@
         <v>7453</v>
       </c>
       <c r="B7453">
-        <v>2.199017508649992</v>
+        <v>2.199017508649991</v>
       </c>
     </row>
     <row r="7454" spans="1:2">
@@ -60047,7 +60047,7 @@
         <v>7463</v>
       </c>
       <c r="B7463">
-        <v>7.033060171587232</v>
+        <v>7.033060171587231</v>
       </c>
     </row>
     <row r="7464" spans="1:2">
@@ -60199,7 +60199,7 @@
         <v>7482</v>
       </c>
       <c r="B7482">
-        <v>0.2712741732319464</v>
+        <v>0.2712741732319463</v>
       </c>
     </row>
     <row r="7483" spans="1:2">
@@ -60415,7 +60415,7 @@
         <v>7509</v>
       </c>
       <c r="B7509">
-        <v>0.5928885726326748</v>
+        <v>0.5928885726326747</v>
       </c>
     </row>
     <row r="7510" spans="1:2">
@@ -60695,7 +60695,7 @@
         <v>7544</v>
       </c>
       <c r="B7544">
-        <v>0.6256158155199872</v>
+        <v>0.6256158155199871</v>
       </c>
     </row>
     <row r="7545" spans="1:2">
@@ -60703,7 +60703,7 @@
         <v>7545</v>
       </c>
       <c r="B7545">
-        <v>0.6408906780550165</v>
+        <v>0.6408906780550164</v>
       </c>
     </row>
     <row r="7546" spans="1:2">
@@ -60935,7 +60935,7 @@
         <v>7574</v>
       </c>
       <c r="B7574">
-        <v>0.5532067539979286</v>
+        <v>0.5532067539979285</v>
       </c>
     </row>
     <row r="7575" spans="1:2">
@@ -61023,7 +61023,7 @@
         <v>7585</v>
       </c>
       <c r="B7585">
-        <v>27.99221134407654</v>
+        <v>27.99221134407653</v>
       </c>
     </row>
     <row r="7586" spans="1:2">
@@ -61071,7 +61071,7 @@
         <v>7591</v>
       </c>
       <c r="B7591">
-        <v>41.67089177414071</v>
+        <v>41.6708917741407</v>
       </c>
     </row>
     <row r="7592" spans="1:2">
@@ -61175,7 +61175,7 @@
         <v>7604</v>
       </c>
       <c r="B7604">
-        <v>12.67160041991219</v>
+        <v>12.67160041991218</v>
       </c>
     </row>
     <row r="7605" spans="1:2">
@@ -61183,7 +61183,7 @@
         <v>7605</v>
       </c>
       <c r="B7605">
-        <v>9.300638719021659</v>
+        <v>9.300638719021658</v>
       </c>
     </row>
     <row r="7606" spans="1:2">
@@ -61207,7 +61207,7 @@
         <v>7608</v>
       </c>
       <c r="B7608">
-        <v>15.58164929830002</v>
+        <v>15.58164929830001</v>
       </c>
     </row>
     <row r="7609" spans="1:2">
@@ -61423,7 +61423,7 @@
         <v>7635</v>
       </c>
       <c r="B7635">
-        <v>47.8948414221917</v>
+        <v>47.89484142219169</v>
       </c>
     </row>
     <row r="7636" spans="1:2">
@@ -61447,7 +61447,7 @@
         <v>7638</v>
       </c>
       <c r="B7638">
-        <v>47.5331917604836</v>
+        <v>47.53319176048359</v>
       </c>
     </row>
     <row r="7639" spans="1:2">
@@ -61495,7 +61495,7 @@
         <v>7644</v>
       </c>
       <c r="B7644">
-        <v>3.269822885448496</v>
+        <v>3.269822885448495</v>
       </c>
     </row>
     <row r="7645" spans="1:2">
@@ -61551,7 +61551,7 @@
         <v>7651</v>
       </c>
       <c r="B7651">
-        <v>33.58711331474482</v>
+        <v>33.58711331474481</v>
       </c>
     </row>
     <row r="7652" spans="1:2">
@@ -61575,7 +61575,7 @@
         <v>7654</v>
       </c>
       <c r="B7654">
-        <v>26.85154955450272</v>
+        <v>26.85154955450271</v>
       </c>
     </row>
     <row r="7655" spans="1:2">
@@ -61591,7 +61591,7 @@
         <v>7656</v>
       </c>
       <c r="B7656">
-        <v>41.22483765329814</v>
+        <v>41.22483765329813</v>
       </c>
     </row>
     <row r="7657" spans="1:2">
@@ -61679,7 +61679,7 @@
         <v>7667</v>
       </c>
       <c r="B7667">
-        <v>5.880089398389634</v>
+        <v>5.880089398389633</v>
       </c>
     </row>
     <row r="7668" spans="1:2">
@@ -61903,7 +61903,7 @@
         <v>7695</v>
       </c>
       <c r="B7695">
-        <v>0.7985892732482999</v>
+        <v>0.7985892732482998</v>
       </c>
     </row>
     <row r="7696" spans="1:2">
@@ -61911,7 +61911,7 @@
         <v>7696</v>
       </c>
       <c r="B7696">
-        <v>0.4558983770312021</v>
+        <v>0.455898377031202</v>
       </c>
     </row>
     <row r="7697" spans="1:2">
@@ -61967,7 +61967,7 @@
         <v>7703</v>
       </c>
       <c r="B7703">
-        <v>28.36745950197853</v>
+        <v>28.36745950197852</v>
       </c>
     </row>
     <row r="7704" spans="1:2">
@@ -62111,7 +62111,7 @@
         <v>7721</v>
       </c>
       <c r="B7721">
-        <v>6.353809425281832</v>
+        <v>6.353809425281831</v>
       </c>
     </row>
     <row r="7722" spans="1:2">
@@ -62271,7 +62271,7 @@
         <v>7741</v>
       </c>
       <c r="B7741">
-        <v>21.6152199996366</v>
+        <v>21.61521999963659</v>
       </c>
     </row>
     <row r="7742" spans="1:2">
@@ -62367,7 +62367,7 @@
         <v>7753</v>
       </c>
       <c r="B7753">
-        <v>71.248207137921</v>
+        <v>71.24820713792099</v>
       </c>
     </row>
     <row r="7754" spans="1:2">
@@ -62511,7 +62511,7 @@
         <v>7771</v>
       </c>
       <c r="B7771">
-        <v>81.01567871442631</v>
+        <v>81.0156787144263</v>
       </c>
     </row>
     <row r="7772" spans="1:2">
@@ -62559,7 +62559,7 @@
         <v>7777</v>
       </c>
       <c r="B7777">
-        <v>64.56267060397839</v>
+        <v>64.56267060397838</v>
       </c>
     </row>
     <row r="7778" spans="1:2">
@@ -62575,7 +62575,7 @@
         <v>7779</v>
       </c>
       <c r="B7779">
-        <v>72.2338050409391</v>
+        <v>72.23380504093909</v>
       </c>
     </row>
     <row r="7780" spans="1:2">
@@ -62591,7 +62591,7 @@
         <v>7781</v>
       </c>
       <c r="B7781">
-        <v>72.76631511818677</v>
+        <v>72.76631511818675</v>
       </c>
     </row>
     <row r="7782" spans="1:2">
@@ -62623,7 +62623,7 @@
         <v>7785</v>
       </c>
       <c r="B7785">
-        <v>16.28006689053387</v>
+        <v>16.28006689053386</v>
       </c>
     </row>
     <row r="7786" spans="1:2">
@@ -62719,7 +62719,7 @@
         <v>7797</v>
       </c>
       <c r="B7797">
-        <v>68.97778580141156</v>
+        <v>68.97778580141154</v>
       </c>
     </row>
     <row r="7798" spans="1:2">
@@ -62735,7 +62735,7 @@
         <v>7799</v>
       </c>
       <c r="B7799">
-        <v>70.76874291867104</v>
+        <v>70.76874291867102</v>
       </c>
     </row>
     <row r="7800" spans="1:2">
@@ -62751,7 +62751,7 @@
         <v>7801</v>
       </c>
       <c r="B7801">
-        <v>80.0930910847204</v>
+        <v>80.09309108472038</v>
       </c>
     </row>
     <row r="7802" spans="1:2">
@@ -62879,7 +62879,7 @@
         <v>7817</v>
       </c>
       <c r="B7817">
-        <v>16.99114515163789</v>
+        <v>16.99114515163788</v>
       </c>
     </row>
     <row r="7818" spans="1:2">
@@ -62927,7 +62927,7 @@
         <v>7823</v>
       </c>
       <c r="B7823">
-        <v>64.92168262633854</v>
+        <v>64.92168262633852</v>
       </c>
     </row>
     <row r="7824" spans="1:2">
@@ -62959,7 +62959,7 @@
         <v>7827</v>
       </c>
       <c r="B7827">
-        <v>76.70987901441383</v>
+        <v>76.70987901441381</v>
       </c>
     </row>
     <row r="7828" spans="1:2">
@@ -63175,7 +63175,7 @@
         <v>7854</v>
       </c>
       <c r="B7854">
-        <v>86.0137122077569</v>
+        <v>86.01371220775688</v>
       </c>
     </row>
     <row r="7855" spans="1:2">
@@ -63311,7 +63311,7 @@
         <v>7871</v>
       </c>
       <c r="B7871">
-        <v>58.04711527245936</v>
+        <v>58.04711527245935</v>
       </c>
     </row>
     <row r="7872" spans="1:2">
@@ -63335,7 +63335,7 @@
         <v>7874</v>
       </c>
       <c r="B7874">
-        <v>67.98691261969755</v>
+        <v>67.98691261969753</v>
       </c>
     </row>
     <row r="7875" spans="1:2">
@@ -63375,7 +63375,7 @@
         <v>7879</v>
       </c>
       <c r="B7879">
-        <v>65.68132275854875</v>
+        <v>65.68132275854873</v>
       </c>
     </row>
     <row r="7880" spans="1:2">
@@ -63463,7 +63463,7 @@
         <v>7890</v>
       </c>
       <c r="B7890">
-        <v>40.57509916058594</v>
+        <v>40.57509916058593</v>
       </c>
     </row>
     <row r="7891" spans="1:2">
@@ -63527,7 +63527,7 @@
         <v>7898</v>
       </c>
       <c r="B7898">
-        <v>40.51677802389233</v>
+        <v>40.51677802389232</v>
       </c>
     </row>
     <row r="7899" spans="1:2">
@@ -63567,7 +63567,7 @@
         <v>7903</v>
       </c>
       <c r="B7903">
-        <v>31.92041831787775</v>
+        <v>31.92041831787774</v>
       </c>
     </row>
     <row r="7904" spans="1:2">
@@ -63623,7 +63623,7 @@
         <v>7910</v>
       </c>
       <c r="B7910">
-        <v>5.091962761221544</v>
+        <v>5.091962761221543</v>
       </c>
     </row>
     <row r="7911" spans="1:2">
@@ -63839,7 +63839,7 @@
         <v>7937</v>
       </c>
       <c r="B7937">
-        <v>0.5988056769032474</v>
+        <v>0.5988056769032473</v>
       </c>
     </row>
     <row r="7938" spans="1:2">
@@ -63855,7 +63855,7 @@
         <v>7939</v>
       </c>
       <c r="B7939">
-        <v>12.17317450446084</v>
+        <v>12.17317450446083</v>
       </c>
     </row>
     <row r="7940" spans="1:2">
@@ -63943,7 +63943,7 @@
         <v>7950</v>
       </c>
       <c r="B7950">
-        <v>49.12017143483478</v>
+        <v>49.12017143483477</v>
       </c>
     </row>
     <row r="7951" spans="1:2">
@@ -63967,7 +63967,7 @@
         <v>7953</v>
       </c>
       <c r="B7953">
-        <v>4.982031814619674</v>
+        <v>4.982031814619673</v>
       </c>
     </row>
     <row r="7954" spans="1:2">
@@ -63975,7 +63975,7 @@
         <v>7954</v>
       </c>
       <c r="B7954">
-        <v>4.36596718424966</v>
+        <v>4.365967184249659</v>
       </c>
     </row>
     <row r="7955" spans="1:2">
@@ -64063,7 +64063,7 @@
         <v>7965</v>
       </c>
       <c r="B7965">
-        <v>16.51434787883975</v>
+        <v>16.51434787883974</v>
       </c>
     </row>
     <row r="7966" spans="1:2">
@@ -64279,7 +64279,7 @@
         <v>7992</v>
       </c>
       <c r="B7992">
-        <v>43.16643328442955</v>
+        <v>43.16643328442954</v>
       </c>
     </row>
     <row r="7993" spans="1:2">
@@ -64311,7 +64311,7 @@
         <v>7996</v>
       </c>
       <c r="B7996">
-        <v>50.86511639902443</v>
+        <v>50.86511639902442</v>
       </c>
     </row>
     <row r="7997" spans="1:2">
@@ -64343,7 +64343,7 @@
         <v>8000</v>
       </c>
       <c r="B8000">
-        <v>5.044954166620264</v>
+        <v>5.044954166620263</v>
       </c>
     </row>
     <row r="8001" spans="1:2">
@@ -64359,7 +64359,7 @@
         <v>8002</v>
       </c>
       <c r="B8002">
-        <v>7.198938379469554</v>
+        <v>7.198938379469553</v>
       </c>
     </row>
     <row r="8003" spans="1:2">
@@ -64383,7 +64383,7 @@
         <v>8005</v>
       </c>
       <c r="B8005">
-        <v>7.399428277017781</v>
+        <v>7.39942827701778</v>
       </c>
     </row>
     <row r="8006" spans="1:2">
@@ -64479,7 +64479,7 @@
         <v>8017</v>
       </c>
       <c r="B8017">
-        <v>37.13591052189505</v>
+        <v>37.13591052189504</v>
       </c>
     </row>
     <row r="8018" spans="1:2">
@@ -64503,7 +64503,7 @@
         <v>8020</v>
       </c>
       <c r="B8020">
-        <v>27.14031244889574</v>
+        <v>27.14031244889573</v>
       </c>
     </row>
     <row r="8021" spans="1:2">
@@ -64527,7 +64527,7 @@
         <v>8023</v>
       </c>
       <c r="B8023">
-        <v>20.22949220753416</v>
+        <v>20.22949220753415</v>
       </c>
     </row>
     <row r="8024" spans="1:2">
@@ -64703,7 +64703,7 @@
         <v>8045</v>
       </c>
       <c r="B8045">
-        <v>46.134363692953</v>
+        <v>46.13436369295299</v>
       </c>
     </row>
     <row r="8046" spans="1:2">
@@ -64711,7 +64711,7 @@
         <v>8046</v>
       </c>
       <c r="B8046">
-        <v>45.46176565922521</v>
+        <v>45.4617656592252</v>
       </c>
     </row>
     <row r="8047" spans="1:2">
@@ -64887,7 +64887,7 @@
         <v>8068</v>
       </c>
       <c r="B8068">
-        <v>28.24911741656708</v>
+        <v>28.24911741656707</v>
       </c>
     </row>
     <row r="8069" spans="1:2">
@@ -64967,7 +64967,7 @@
         <v>8078</v>
       </c>
       <c r="B8078">
-        <v>0.793167459033065</v>
+        <v>0.7931674590330648</v>
       </c>
     </row>
     <row r="8079" spans="1:2">
@@ -65023,7 +65023,7 @@
         <v>8085</v>
       </c>
       <c r="B8085">
-        <v>0.3600641473889422</v>
+        <v>0.3600641473889421</v>
       </c>
     </row>
     <row r="8086" spans="1:2">
@@ -65047,7 +65047,7 @@
         <v>8088</v>
       </c>
       <c r="B8088">
-        <v>1.360075284088412</v>
+        <v>1.360075284088411</v>
       </c>
     </row>
     <row r="8089" spans="1:2">
@@ -65079,7 +65079,7 @@
         <v>8092</v>
       </c>
       <c r="B8092">
-        <v>6.710183808294028</v>
+        <v>6.710183808294027</v>
       </c>
     </row>
     <row r="8093" spans="1:2">
@@ -65087,7 +65087,7 @@
         <v>8093</v>
       </c>
       <c r="B8093">
-        <v>6.529739969790239</v>
+        <v>6.529739969790238</v>
       </c>
     </row>
     <row r="8094" spans="1:2">
@@ -65271,7 +65271,7 @@
         <v>8116</v>
       </c>
       <c r="B8116">
-        <v>3.352380997039397</v>
+        <v>3.352380997039396</v>
       </c>
     </row>
     <row r="8117" spans="1:2">
@@ -65319,7 +65319,7 @@
         <v>8122</v>
       </c>
       <c r="B8122">
-        <v>0.3747792442401284</v>
+        <v>0.3747792442401283</v>
       </c>
     </row>
     <row r="8123" spans="1:2">
@@ -65327,7 +65327,7 @@
         <v>8123</v>
       </c>
       <c r="B8123">
-        <v>0.3806465264341285</v>
+        <v>0.3806465264341284</v>
       </c>
     </row>
     <row r="8124" spans="1:2">
@@ -65463,7 +65463,7 @@
         <v>8140</v>
       </c>
       <c r="B8140">
-        <v>3.52552736668052</v>
+        <v>3.525527366680519</v>
       </c>
     </row>
     <row r="8141" spans="1:2">
@@ -65831,7 +65831,7 @@
         <v>8186</v>
       </c>
       <c r="B8186">
-        <v>0.7855183049240039</v>
+        <v>0.7855183049240038</v>
       </c>
     </row>
     <row r="8187" spans="1:2">
@@ -65855,7 +65855,7 @@
         <v>8189</v>
       </c>
       <c r="B8189">
-        <v>5.22566176905885</v>
+        <v>5.225661769058849</v>
       </c>
     </row>
     <row r="8190" spans="1:2">
@@ -66207,7 +66207,7 @@
         <v>8233</v>
       </c>
       <c r="B8233">
-        <v>40.66683039568694</v>
+        <v>40.66683039568693</v>
       </c>
     </row>
     <row r="8234" spans="1:2">
@@ -66231,7 +66231,7 @@
         <v>8236</v>
       </c>
       <c r="B8236">
-        <v>51.38531749264832</v>
+        <v>51.38531749264831</v>
       </c>
     </row>
     <row r="8237" spans="1:2">
@@ -66247,7 +66247,7 @@
         <v>8238</v>
       </c>
       <c r="B8238">
-        <v>53.86411233764598</v>
+        <v>53.86411233764597</v>
       </c>
     </row>
     <row r="8239" spans="1:2">
@@ -66255,7 +66255,7 @@
         <v>8239</v>
       </c>
       <c r="B8239">
-        <v>51.40524632327729</v>
+        <v>51.40524632327728</v>
       </c>
     </row>
     <row r="8240" spans="1:2">
@@ -66279,7 +66279,7 @@
         <v>8242</v>
       </c>
       <c r="B8242">
-        <v>7.204829107346647</v>
+        <v>7.204829107346646</v>
       </c>
     </row>
     <row r="8243" spans="1:2">
@@ -66591,7 +66591,7 @@
         <v>8281</v>
       </c>
       <c r="B8281">
-        <v>47.96107547692916</v>
+        <v>47.96107547692915</v>
       </c>
     </row>
     <row r="8282" spans="1:2">
@@ -66623,7 +66623,7 @@
         <v>8285</v>
       </c>
       <c r="B8285">
-        <v>56.81650998112037</v>
+        <v>56.81650998112036</v>
       </c>
     </row>
     <row r="8286" spans="1:2">
@@ -66703,7 +66703,7 @@
         <v>8295</v>
       </c>
       <c r="B8295">
-        <v>12.10122556446948</v>
+        <v>12.10122556446947</v>
       </c>
     </row>
     <row r="8296" spans="1:2">
@@ -66727,7 +66727,7 @@
         <v>8298</v>
       </c>
       <c r="B8298">
-        <v>12.79343005068371</v>
+        <v>12.7934300506837</v>
       </c>
     </row>
     <row r="8299" spans="1:2">
@@ -66775,7 +66775,7 @@
         <v>8304</v>
       </c>
       <c r="B8304">
-        <v>41.65565208013032</v>
+        <v>41.65565208013031</v>
       </c>
     </row>
     <row r="8305" spans="1:2">
@@ -66887,7 +66887,7 @@
         <v>8318</v>
       </c>
       <c r="B8318">
-        <v>21.20999067447956</v>
+        <v>21.20999067447955</v>
       </c>
     </row>
     <row r="8319" spans="1:2">
@@ -66967,7 +66967,7 @@
         <v>8328</v>
       </c>
       <c r="B8328">
-        <v>43.44924683673775</v>
+        <v>43.44924683673774</v>
       </c>
     </row>
     <row r="8329" spans="1:2">
@@ -67023,7 +67023,7 @@
         <v>8335</v>
       </c>
       <c r="B8335">
-        <v>54.93645926810784</v>
+        <v>54.93645926810783</v>
       </c>
     </row>
     <row r="8336" spans="1:2">
@@ -67071,7 +67071,7 @@
         <v>8341</v>
       </c>
       <c r="B8341">
-        <v>4.843878126994715</v>
+        <v>4.843878126994714</v>
       </c>
     </row>
     <row r="8342" spans="1:2">
@@ -67087,7 +67087,7 @@
         <v>8343</v>
       </c>
       <c r="B8343">
-        <v>4.11940651942387</v>
+        <v>4.119406519423869</v>
       </c>
     </row>
     <row r="8344" spans="1:2">
@@ -67167,7 +67167,7 @@
         <v>8353</v>
       </c>
       <c r="B8353">
-        <v>63.40005779360883</v>
+        <v>63.40005779360882</v>
       </c>
     </row>
     <row r="8354" spans="1:2">
@@ -67207,7 +67207,7 @@
         <v>8358</v>
       </c>
       <c r="B8358">
-        <v>76.07538021571202</v>
+        <v>76.075380215712</v>
       </c>
     </row>
     <row r="8359" spans="1:2">
@@ -67215,7 +67215,7 @@
         <v>8359</v>
       </c>
       <c r="B8359">
-        <v>76.1899709918286</v>
+        <v>76.18997099182859</v>
       </c>
     </row>
     <row r="8360" spans="1:2">
@@ -67255,7 +67255,7 @@
         <v>8364</v>
       </c>
       <c r="B8364">
-        <v>5.991427085977079</v>
+        <v>5.991427085977078</v>
       </c>
     </row>
     <row r="8365" spans="1:2">
@@ -67335,7 +67335,7 @@
         <v>8374</v>
       </c>
       <c r="B8374">
-        <v>30.22089936468061</v>
+        <v>30.2208993646806</v>
       </c>
     </row>
     <row r="8375" spans="1:2">
@@ -67359,7 +67359,7 @@
         <v>8377</v>
       </c>
       <c r="B8377">
-        <v>48.87545711755256</v>
+        <v>48.87545711755255</v>
       </c>
     </row>
     <row r="8378" spans="1:2">
@@ -67367,7 +67367,7 @@
         <v>8378</v>
       </c>
       <c r="B8378">
-        <v>48.09618122575204</v>
+        <v>48.09618122575203</v>
       </c>
     </row>
     <row r="8379" spans="1:2">
@@ -67455,7 +67455,7 @@
         <v>8389</v>
       </c>
       <c r="B8389">
-        <v>4.618770262198936</v>
+        <v>4.618770262198935</v>
       </c>
     </row>
     <row r="8390" spans="1:2">
@@ -67495,7 +67495,7 @@
         <v>8394</v>
       </c>
       <c r="B8394">
-        <v>6.603124957871039</v>
+        <v>6.603124957871038</v>
       </c>
     </row>
     <row r="8395" spans="1:2">
@@ -67503,7 +67503,7 @@
         <v>8395</v>
       </c>
       <c r="B8395">
-        <v>42.52167699937459</v>
+        <v>42.52167699937458</v>
       </c>
     </row>
     <row r="8396" spans="1:2">
@@ -67511,7 +67511,7 @@
         <v>8396</v>
       </c>
       <c r="B8396">
-        <v>39.25803791284185</v>
+        <v>39.25803791284184</v>
       </c>
     </row>
     <row r="8397" spans="1:2">
@@ -67655,7 +67655,7 @@
         <v>8414</v>
       </c>
       <c r="B8414">
-        <v>5.523509865650375</v>
+        <v>5.523509865650374</v>
       </c>
     </row>
     <row r="8415" spans="1:2">
@@ -67687,7 +67687,7 @@
         <v>8418</v>
       </c>
       <c r="B8418">
-        <v>11.59975171021605</v>
+        <v>11.59975171021604</v>
       </c>
     </row>
     <row r="8419" spans="1:2">
@@ -67703,7 +67703,7 @@
         <v>8420</v>
       </c>
       <c r="B8420">
-        <v>49.82090428827406</v>
+        <v>49.82090428827405</v>
       </c>
     </row>
     <row r="8421" spans="1:2">
@@ -67719,7 +67719,7 @@
         <v>8422</v>
       </c>
       <c r="B8422">
-        <v>37.46209858792513</v>
+        <v>37.46209858792512</v>
       </c>
     </row>
     <row r="8423" spans="1:2">
@@ -67791,7 +67791,7 @@
         <v>8431</v>
       </c>
       <c r="B8431">
-        <v>58.02953101013968</v>
+        <v>58.02953101013967</v>
       </c>
     </row>
     <row r="8432" spans="1:2">
@@ -67799,7 +67799,7 @@
         <v>8432</v>
       </c>
       <c r="B8432">
-        <v>6.566491078038371</v>
+        <v>6.56649107803837</v>
       </c>
     </row>
     <row r="8433" spans="1:2">
@@ -67863,7 +67863,7 @@
         <v>8440</v>
       </c>
       <c r="B8440">
-        <v>4.308261496737241</v>
+        <v>4.30826149673724</v>
       </c>
     </row>
     <row r="8441" spans="1:2">
@@ -67943,7 +67943,7 @@
         <v>8450</v>
       </c>
       <c r="B8450">
-        <v>53.40281852279302</v>
+        <v>53.40281852279301</v>
       </c>
     </row>
     <row r="8451" spans="1:2">
@@ -68039,7 +68039,7 @@
         <v>8462</v>
       </c>
       <c r="B8462">
-        <v>3.810245880740017</v>
+        <v>3.810245880740016</v>
       </c>
     </row>
     <row r="8463" spans="1:2">
@@ -68047,7 +68047,7 @@
         <v>8463</v>
       </c>
       <c r="B8463">
-        <v>3.128181652463468</v>
+        <v>3.128181652463467</v>
       </c>
     </row>
     <row r="8464" spans="1:2">
@@ -68087,7 +68087,7 @@
         <v>8468</v>
       </c>
       <c r="B8468">
-        <v>26.40813307300811</v>
+        <v>26.4081330730081</v>
       </c>
     </row>
     <row r="8469" spans="1:2">
@@ -68111,7 +68111,7 @@
         <v>8471</v>
       </c>
       <c r="B8471">
-        <v>19.54962601204757</v>
+        <v>19.54962601204756</v>
       </c>
     </row>
     <row r="8472" spans="1:2">
@@ -68151,7 +68151,7 @@
         <v>8476</v>
       </c>
       <c r="B8476">
-        <v>32.23664196859334</v>
+        <v>32.23664196859333</v>
       </c>
     </row>
     <row r="8477" spans="1:2">
@@ -68215,7 +68215,7 @@
         <v>8484</v>
       </c>
       <c r="B8484">
-        <v>2.468809914710467</v>
+        <v>2.468809914710466</v>
       </c>
     </row>
     <row r="8485" spans="1:2">
@@ -68247,7 +68247,7 @@
         <v>8488</v>
       </c>
       <c r="B8488">
-        <v>0.8571741738767028</v>
+        <v>0.8571741738767027</v>
       </c>
     </row>
     <row r="8489" spans="1:2">
@@ -68263,7 +68263,7 @@
         <v>8490</v>
       </c>
       <c r="B8490">
-        <v>0.827694158097758</v>
+        <v>0.8276941580977579</v>
       </c>
     </row>
     <row r="8491" spans="1:2">
@@ -68359,7 +68359,7 @@
         <v>8502</v>
       </c>
       <c r="B8502">
-        <v>30.37769237036443</v>
+        <v>30.37769237036442</v>
       </c>
     </row>
     <row r="8503" spans="1:2">
@@ -68423,7 +68423,7 @@
         <v>8510</v>
       </c>
       <c r="B8510">
-        <v>4.467223228107154</v>
+        <v>4.467223228107153</v>
       </c>
     </row>
     <row r="8511" spans="1:2">
@@ -68431,7 +68431,7 @@
         <v>8511</v>
       </c>
       <c r="B8511">
-        <v>3.86405372343824</v>
+        <v>3.864053723438239</v>
       </c>
     </row>
     <row r="8512" spans="1:2">
@@ -68463,7 +68463,7 @@
         <v>8515</v>
       </c>
       <c r="B8515">
-        <v>39.44941330108771</v>
+        <v>39.4494133010877</v>
       </c>
     </row>
     <row r="8516" spans="1:2">
@@ -68559,7 +68559,7 @@
         <v>8527</v>
       </c>
       <c r="B8527">
-        <v>6.894232420573353</v>
+        <v>6.894232420573352</v>
       </c>
     </row>
     <row r="8528" spans="1:2">
@@ -68567,7 +68567,7 @@
         <v>8528</v>
       </c>
       <c r="B8528">
-        <v>0.4926963766455207</v>
+        <v>0.4926963766455206</v>
       </c>
     </row>
     <row r="8529" spans="1:2">
@@ -68671,7 +68671,7 @@
         <v>8541</v>
       </c>
       <c r="B8541">
-        <v>58.04447763311141</v>
+        <v>58.0444776331114</v>
       </c>
     </row>
     <row r="8542" spans="1:2">
@@ -68879,7 +68879,7 @@
         <v>8567</v>
       </c>
       <c r="B8567">
-        <v>85.05126691679304</v>
+        <v>85.05126691679303</v>
       </c>
     </row>
     <row r="8568" spans="1:2">
@@ -68895,7 +68895,7 @@
         <v>8569</v>
       </c>
       <c r="B8569">
-        <v>88.75040956677654</v>
+        <v>88.75040956677653</v>
       </c>
     </row>
     <row r="8570" spans="1:2">
@@ -68903,7 +68903,7 @@
         <v>8570</v>
       </c>
       <c r="B8570">
-        <v>88.70410434266805</v>
+        <v>88.70410434266803</v>
       </c>
     </row>
     <row r="8571" spans="1:2">
@@ -68943,7 +68943,7 @@
         <v>8575</v>
       </c>
       <c r="B8575">
-        <v>86.91637100683384</v>
+        <v>86.91637100683383</v>
       </c>
     </row>
     <row r="8576" spans="1:2">
@@ -68983,7 +68983,7 @@
         <v>8580</v>
       </c>
       <c r="B8580">
-        <v>52.96467731999431</v>
+        <v>52.9646773199943</v>
       </c>
     </row>
     <row r="8581" spans="1:2">
@@ -69007,7 +69007,7 @@
         <v>8583</v>
       </c>
       <c r="B8583">
-        <v>42.30245986245591</v>
+        <v>42.3024598624559</v>
       </c>
     </row>
     <row r="8584" spans="1:2">
@@ -69023,7 +69023,7 @@
         <v>8585</v>
       </c>
       <c r="B8585">
-        <v>46.55228299408408</v>
+        <v>46.55228299408407</v>
       </c>
     </row>
     <row r="8586" spans="1:2">
@@ -69055,7 +69055,7 @@
         <v>8589</v>
       </c>
       <c r="B8589">
-        <v>74.07575651892566</v>
+        <v>74.07575651892564</v>
       </c>
     </row>
     <row r="8590" spans="1:2">
@@ -69103,7 +69103,7 @@
         <v>8595</v>
       </c>
       <c r="B8595">
-        <v>84.59759294894528</v>
+        <v>84.59759294894526</v>
       </c>
     </row>
     <row r="8596" spans="1:2">
@@ -69175,7 +69175,7 @@
         <v>8604</v>
       </c>
       <c r="B8604">
-        <v>16.41766374318537</v>
+        <v>16.41766374318536</v>
       </c>
     </row>
     <row r="8605" spans="1:2">
@@ -69191,7 +69191,7 @@
         <v>8606</v>
       </c>
       <c r="B8606">
-        <v>14.07110255083171</v>
+        <v>14.0711025508317</v>
       </c>
     </row>
     <row r="8607" spans="1:2">
@@ -69263,7 +69263,7 @@
         <v>8615</v>
       </c>
       <c r="B8615">
-        <v>77.67818572615091</v>
+        <v>77.6781857261509</v>
       </c>
     </row>
     <row r="8616" spans="1:2">
@@ -69311,7 +69311,7 @@
         <v>8621</v>
       </c>
       <c r="B8621">
-        <v>91.7766611119936</v>
+        <v>91.77666111199358</v>
       </c>
     </row>
     <row r="8622" spans="1:2">
@@ -69631,7 +69631,7 @@
         <v>8661</v>
       </c>
       <c r="B8661">
-        <v>58.32758425645827</v>
+        <v>58.32758425645826</v>
       </c>
     </row>
     <row r="8662" spans="1:2">
@@ -69663,7 +69663,7 @@
         <v>8665</v>
       </c>
       <c r="B8665">
-        <v>65.07525185059708</v>
+        <v>65.07525185059707</v>
       </c>
     </row>
     <row r="8666" spans="1:2">
@@ -69703,7 +69703,7 @@
         <v>8670</v>
       </c>
       <c r="B8670">
-        <v>63.70543781589395</v>
+        <v>63.70543781589394</v>
       </c>
     </row>
     <row r="8671" spans="1:2">
@@ -69831,7 +69831,7 @@
         <v>8686</v>
       </c>
       <c r="B8686">
-        <v>47.43090996799079</v>
+        <v>47.43090996799078</v>
       </c>
     </row>
     <row r="8687" spans="1:2">
@@ -69839,7 +69839,7 @@
         <v>8687</v>
       </c>
       <c r="B8687">
-        <v>49.50497370859713</v>
+        <v>49.50497370859712</v>
       </c>
     </row>
     <row r="8688" spans="1:2">
@@ -69911,7 +69911,7 @@
         <v>8696</v>
       </c>
       <c r="B8696">
-        <v>9.149707134111068</v>
+        <v>9.149707134111065</v>
       </c>
     </row>
     <row r="8697" spans="1:2">
@@ -69975,7 +69975,7 @@
         <v>8704</v>
       </c>
       <c r="B8704">
-        <v>30.95592152964326</v>
+        <v>30.95592152964325</v>
       </c>
     </row>
     <row r="8705" spans="1:2">
@@ -70031,7 +70031,7 @@
         <v>8711</v>
       </c>
       <c r="B8711">
-        <v>54.42944637122371</v>
+        <v>54.4294463712237</v>
       </c>
     </row>
     <row r="8712" spans="1:2">
@@ -70039,7 +70039,7 @@
         <v>8712</v>
       </c>
       <c r="B8712">
-        <v>60.19972205142694</v>
+        <v>60.19972205142693</v>
       </c>
     </row>
     <row r="8713" spans="1:2">
@@ -70071,7 +70071,7 @@
         <v>8716</v>
       </c>
       <c r="B8716">
-        <v>64.01755847206829</v>
+        <v>64.01755847206827</v>
       </c>
     </row>
     <row r="8717" spans="1:2">
@@ -70191,7 +70191,7 @@
         <v>8731</v>
       </c>
       <c r="B8731">
-        <v>99.18754846662304</v>
+        <v>99.187548466623</v>
       </c>
     </row>
     <row r="8732" spans="1:2">
@@ -70207,7 +70207,7 @@
         <v>8733</v>
       </c>
       <c r="B8733">
-        <v>78.89618896282747</v>
+        <v>78.89618896282745</v>
       </c>
     </row>
     <row r="8734" spans="1:2">
@@ -70255,7 +70255,7 @@
         <v>8739</v>
       </c>
       <c r="B8739">
-        <v>92.7985998238057</v>
+        <v>92.79859982380567</v>
       </c>
     </row>
     <row r="8740" spans="1:2">
@@ -70351,7 +70351,7 @@
         <v>8751</v>
       </c>
       <c r="B8751">
-        <v>54.78376925696528</v>
+        <v>54.78376925696527</v>
       </c>
     </row>
     <row r="8752" spans="1:2">
@@ -70367,7 +70367,7 @@
         <v>8753</v>
       </c>
       <c r="B8753">
-        <v>47.53026105009698</v>
+        <v>47.53026105009697</v>
       </c>
     </row>
     <row r="8754" spans="1:2">
@@ -70423,7 +70423,7 @@
         <v>8760</v>
       </c>
       <c r="B8760">
-        <v>96.6501394138931</v>
+        <v>96.65013941389309</v>
       </c>
     </row>
   </sheetData>
